--- a/myri.xlsx
+++ b/myri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yichengzhu/Documents/GitHub/ShelfReader-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84C5520C-3895-3F42-93DC-CE9C106002D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A452B5-ABE2-0147-86DB-14A61D967F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{CFCC6A71-9722-A24E-BA87-A076B145BDFA}"/>
   </bookViews>
@@ -3156,29 +3156,32 @@
   <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G313"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="7" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>31840001861113</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -3189,19 +3192,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>31840001861139</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -3212,19 +3215,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>31840004505949</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -3235,19 +3238,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>31840001981648</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -3258,19 +3261,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>31840002400440</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -3281,19 +3284,19 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>31840001889262</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -3304,19 +3307,19 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>31840001861147</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -3327,19 +3330,19 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>31840002557728</v>
       </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -3350,19 +3353,19 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>31840001543661</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -3373,19 +3376,19 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>31840001369133</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -3396,19 +3399,19 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>31840009753759</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -3419,19 +3422,19 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>31840003922483</v>
       </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -3442,19 +3445,19 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>31840001485004</v>
       </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -3465,19 +3468,19 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>31840004479061</v>
       </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -3488,19 +3491,19 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>31840004534543</v>
       </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -3511,19 +3514,19 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>31840001861188</v>
       </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -3534,19 +3537,19 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>31840001861204</v>
       </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
       <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -3557,19 +3560,19 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>31840001861261</v>
       </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -3580,19 +3583,19 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>31840002463927</v>
       </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -3603,19 +3606,19 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>31840004186054</v>
       </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -3626,19 +3629,19 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>31840011176288</v>
       </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -3649,19 +3652,19 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>31840001861279</v>
       </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
       <c r="E22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -3672,19 +3675,19 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>31840000986424</v>
       </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
       <c r="E23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -3695,19 +3698,19 @@
         <v>70</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>31840000533739</v>
       </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
       <c r="E24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
         <v>73</v>
@@ -3718,19 +3721,19 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>31840000533747</v>
       </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
         <v>74</v>
@@ -3741,19 +3744,19 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>31840000349961</v>
       </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
       <c r="E26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -3764,19 +3767,19 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
         <v>76</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>31840000349979</v>
       </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
       <c r="E27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
         <v>79</v>
@@ -3787,19 +3790,19 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>31840002724864</v>
       </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
       <c r="E28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
@@ -3810,19 +3813,19 @@
         <v>83</v>
       </c>
       <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
         <v>84</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>31840004501591</v>
       </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
@@ -3833,19 +3836,19 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>31840001861287</v>
       </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
@@ -3856,19 +3859,19 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
         <v>90</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>31840001371089</v>
       </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
@@ -3879,19 +3882,19 @@
         <v>92</v>
       </c>
       <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>31840005291309</v>
       </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
@@ -3902,19 +3905,19 @@
         <v>95</v>
       </c>
       <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
         <v>96</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>31840001861295</v>
       </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
@@ -3925,19 +3928,19 @@
         <v>98</v>
       </c>
       <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
         <v>99</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>31840001486614</v>
       </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
         <v>5</v>
@@ -3948,19 +3951,19 @@
         <v>101</v>
       </c>
       <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>31840004495562</v>
       </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
       <c r="E35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
@@ -3971,19 +3974,19 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>31840001369604</v>
       </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
@@ -3994,19 +3997,19 @@
         <v>107</v>
       </c>
       <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
         <v>108</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>31840001861303</v>
       </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
       <c r="E37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="G37" t="s">
         <v>5</v>
@@ -4017,19 +4020,19 @@
         <v>110</v>
       </c>
       <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
         <v>111</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>31840009813991</v>
       </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
         <v>5</v>
@@ -4040,19 +4043,19 @@
         <v>113</v>
       </c>
       <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
         <v>114</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>31840001861311</v>
       </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
       <c r="E39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
         <v>5</v>
@@ -4063,19 +4066,19 @@
         <v>116</v>
       </c>
       <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>31840001861329</v>
       </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="G40" t="s">
         <v>5</v>
@@ -4086,19 +4089,19 @@
         <v>119</v>
       </c>
       <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
         <v>120</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>31840001861337</v>
       </c>
-      <c r="D41" t="s">
-        <v>2</v>
-      </c>
       <c r="E41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
         <v>5</v>
@@ -4109,19 +4112,19 @@
         <v>122</v>
       </c>
       <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
         <v>123</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>31840001861345</v>
       </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
@@ -4132,19 +4135,19 @@
         <v>125</v>
       </c>
       <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
         <v>126</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>31840001861352</v>
       </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
         <v>5</v>
@@ -4155,19 +4158,19 @@
         <v>128</v>
       </c>
       <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
         <v>129</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>31840009902588</v>
       </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
@@ -4178,19 +4181,19 @@
         <v>131</v>
       </c>
       <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
         <v>132</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>31840004515229</v>
       </c>
-      <c r="D45" t="s">
-        <v>2</v>
-      </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="G45" t="s">
         <v>5</v>
@@ -4201,19 +4204,19 @@
         <v>134</v>
       </c>
       <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
         <v>135</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>31840002336628</v>
       </c>
-      <c r="D46" t="s">
-        <v>2</v>
-      </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
@@ -4224,19 +4227,19 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
         <v>138</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>31840001372012</v>
       </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="G47" t="s">
         <v>5</v>
@@ -4247,19 +4250,19 @@
         <v>140</v>
       </c>
       <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
         <v>141</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>31840002690735</v>
       </c>
-      <c r="D48" t="s">
-        <v>2</v>
-      </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="G48" t="s">
         <v>5</v>
@@ -4270,19 +4273,19 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
         <v>144</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>31840009834815</v>
       </c>
-      <c r="D49" t="s">
-        <v>2</v>
-      </c>
       <c r="E49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
@@ -4293,19 +4296,19 @@
         <v>146</v>
       </c>
       <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
         <v>147</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>31840009781651</v>
       </c>
-      <c r="D50" t="s">
-        <v>2</v>
-      </c>
       <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
         <v>51</v>
-      </c>
-      <c r="F50" t="s">
-        <v>148</v>
       </c>
       <c r="G50" t="s">
         <v>5</v>
@@ -4316,19 +4319,19 @@
         <v>149</v>
       </c>
       <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
         <v>150</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>31840001479080</v>
       </c>
-      <c r="D51" t="s">
-        <v>2</v>
-      </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="G51" t="s">
         <v>5</v>
@@ -4339,19 +4342,19 @@
         <v>152</v>
       </c>
       <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
         <v>153</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>31840002577213</v>
       </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
       <c r="E52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
         <v>5</v>
@@ -4362,19 +4365,19 @@
         <v>155</v>
       </c>
       <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
         <v>156</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>31840001861360</v>
       </c>
-      <c r="D53" t="s">
-        <v>2</v>
-      </c>
       <c r="E53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="G53" t="s">
         <v>5</v>
@@ -4385,19 +4388,19 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
         <v>156</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>31840001861378</v>
       </c>
-      <c r="D54" t="s">
-        <v>2</v>
-      </c>
       <c r="E54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
         <v>5</v>
@@ -4408,19 +4411,19 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
         <v>159</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>31840008023519</v>
       </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
       <c r="E55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
         <v>5</v>
@@ -4431,19 +4434,19 @@
         <v>161</v>
       </c>
       <c r="B56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>31840004646016</v>
       </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
       <c r="E56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
         <v>5</v>
@@ -4454,19 +4457,19 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
         <v>165</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>31840004514628</v>
       </c>
-      <c r="D57" t="s">
-        <v>2</v>
-      </c>
       <c r="E57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
         <v>5</v>
@@ -4477,19 +4480,19 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
         <v>168</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>31840009837388</v>
       </c>
-      <c r="D58" t="s">
-        <v>2</v>
-      </c>
       <c r="E58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="G58" t="s">
         <v>5</v>
@@ -4500,19 +4503,19 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
         <v>171</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>31840008081616</v>
       </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
       <c r="E59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="G59" t="s">
         <v>5</v>
@@ -4523,19 +4526,19 @@
         <v>173</v>
       </c>
       <c r="B60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" t="s">
         <v>174</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>31840001219247</v>
       </c>
-      <c r="D60" t="s">
-        <v>2</v>
-      </c>
       <c r="E60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="G60" t="s">
         <v>5</v>
@@ -4546,19 +4549,19 @@
         <v>176</v>
       </c>
       <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
         <v>177</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>31840009111941</v>
       </c>
-      <c r="D61" t="s">
-        <v>2</v>
-      </c>
       <c r="E61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
         <v>5</v>
@@ -4569,19 +4572,19 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
         <v>180</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>31840005323540</v>
       </c>
-      <c r="D62" t="s">
-        <v>2</v>
-      </c>
       <c r="E62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="G62" t="s">
         <v>5</v>
@@ -4592,19 +4595,19 @@
         <v>182</v>
       </c>
       <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
         <v>183</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>31840005299146</v>
       </c>
-      <c r="D63" t="s">
-        <v>2</v>
-      </c>
       <c r="E63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="G63" t="s">
         <v>5</v>
@@ -4615,19 +4618,19 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" t="s">
         <v>186</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>31840004501542</v>
       </c>
-      <c r="D64" t="s">
-        <v>2</v>
-      </c>
       <c r="E64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="G64" t="s">
         <v>5</v>
@@ -4638,19 +4641,19 @@
         <v>188</v>
       </c>
       <c r="B65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s">
         <v>189</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>31840009070683</v>
       </c>
-      <c r="D65" t="s">
-        <v>2</v>
-      </c>
       <c r="E65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="G65" t="s">
         <v>5</v>
@@ -4661,19 +4664,19 @@
         <v>191</v>
       </c>
       <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
         <v>192</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>31840011133586</v>
       </c>
-      <c r="D66" t="s">
-        <v>2</v>
-      </c>
       <c r="E66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="G66" t="s">
         <v>5</v>
@@ -4684,19 +4687,19 @@
         <v>194</v>
       </c>
       <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
         <v>195</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>31840011133735</v>
       </c>
-      <c r="D67" t="s">
-        <v>2</v>
-      </c>
       <c r="E67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="G67" t="s">
         <v>5</v>
@@ -4707,19 +4710,19 @@
         <v>197</v>
       </c>
       <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
         <v>198</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>31840001057944</v>
       </c>
-      <c r="D68" t="s">
-        <v>2</v>
-      </c>
       <c r="E68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="G68" t="s">
         <v>5</v>
@@ -4730,19 +4733,19 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
         <v>201</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>31840001861824</v>
       </c>
-      <c r="D69" t="s">
-        <v>2</v>
-      </c>
       <c r="E69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="G69" t="s">
         <v>5</v>
@@ -4753,19 +4756,19 @@
         <v>203</v>
       </c>
       <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
         <v>204</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>31840001861832</v>
       </c>
-      <c r="D70" t="s">
-        <v>2</v>
-      </c>
       <c r="E70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="G70" t="s">
         <v>5</v>
@@ -4776,19 +4779,19 @@
         <v>206</v>
       </c>
       <c r="B71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" t="s">
         <v>207</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>31840001861840</v>
       </c>
-      <c r="D71" t="s">
-        <v>2</v>
-      </c>
       <c r="E71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="G71" t="s">
         <v>5</v>
@@ -4799,19 +4802,19 @@
         <v>209</v>
       </c>
       <c r="B72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
         <v>210</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>31840008026082</v>
       </c>
-      <c r="D72" t="s">
-        <v>2</v>
-      </c>
       <c r="E72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="G72" t="s">
         <v>5</v>
@@ -4822,19 +4825,19 @@
         <v>212</v>
       </c>
       <c r="B73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" t="s">
         <v>213</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>31840001861857</v>
       </c>
-      <c r="D73" t="s">
-        <v>2</v>
-      </c>
       <c r="E73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>214</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
         <v>5</v>
@@ -4845,19 +4848,19 @@
         <v>215</v>
       </c>
       <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
         <v>216</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>31840001861865</v>
       </c>
-      <c r="D74" t="s">
-        <v>2</v>
-      </c>
       <c r="E74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="G74" t="s">
         <v>5</v>
@@ -4868,19 +4871,19 @@
         <v>218</v>
       </c>
       <c r="B75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" t="s">
         <v>219</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>31840007126206</v>
       </c>
-      <c r="D75" t="s">
-        <v>2</v>
-      </c>
       <c r="E75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>220</v>
+        <v>3</v>
       </c>
       <c r="G75" t="s">
         <v>5</v>
@@ -4891,19 +4894,19 @@
         <v>221</v>
       </c>
       <c r="B76" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" t="s">
         <v>222</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>31840001369174</v>
       </c>
-      <c r="D76" t="s">
-        <v>2</v>
-      </c>
       <c r="E76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="G76" t="s">
         <v>5</v>
@@ -4914,19 +4917,19 @@
         <v>224</v>
       </c>
       <c r="B77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" t="s">
         <v>225</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>31840002653121</v>
       </c>
-      <c r="D77" t="s">
-        <v>2</v>
-      </c>
       <c r="E77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>226</v>
+        <v>3</v>
       </c>
       <c r="G77" t="s">
         <v>5</v>
@@ -4937,19 +4940,19 @@
         <v>227</v>
       </c>
       <c r="B78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" t="s">
         <v>228</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>31840003723600</v>
       </c>
-      <c r="D78" t="s">
-        <v>2</v>
-      </c>
       <c r="E78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="G78" t="s">
         <v>5</v>
@@ -4960,19 +4963,19 @@
         <v>230</v>
       </c>
       <c r="B79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" t="s">
         <v>231</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>31840008025407</v>
       </c>
-      <c r="D79" t="s">
-        <v>2</v>
-      </c>
       <c r="E79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>232</v>
+        <v>3</v>
       </c>
       <c r="G79" t="s">
         <v>5</v>
@@ -4983,19 +4986,19 @@
         <v>233</v>
       </c>
       <c r="B80" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" t="s">
         <v>234</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>31840001861873</v>
       </c>
-      <c r="D80" t="s">
-        <v>2</v>
-      </c>
       <c r="E80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="G80" t="s">
         <v>5</v>
@@ -5006,19 +5009,19 @@
         <v>236</v>
       </c>
       <c r="B81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" t="s">
         <v>237</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>31840005257961</v>
       </c>
-      <c r="D81" t="s">
-        <v>2</v>
-      </c>
       <c r="E81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>238</v>
+        <v>3</v>
       </c>
       <c r="G81" t="s">
         <v>5</v>
@@ -5029,19 +5032,19 @@
         <v>239</v>
       </c>
       <c r="B82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" t="s">
         <v>240</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>31840010213934</v>
       </c>
-      <c r="D82" t="s">
-        <v>2</v>
-      </c>
       <c r="E82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
       <c r="G82" t="s">
         <v>5</v>
@@ -5052,19 +5055,19 @@
         <v>242</v>
       </c>
       <c r="B83" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" t="s">
         <v>243</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>31840003461672</v>
       </c>
-      <c r="D83" t="s">
-        <v>2</v>
-      </c>
       <c r="E83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="G83" t="s">
         <v>5</v>
@@ -5075,19 +5078,19 @@
         <v>245</v>
       </c>
       <c r="B84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" t="s">
         <v>246</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>31840008015622</v>
       </c>
-      <c r="D84" t="s">
-        <v>2</v>
-      </c>
       <c r="E84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="G84" t="s">
         <v>5</v>
@@ -5098,19 +5101,19 @@
         <v>248</v>
       </c>
       <c r="B85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" t="s">
         <v>249</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>31840001861881</v>
       </c>
-      <c r="D85" t="s">
-        <v>2</v>
-      </c>
       <c r="E85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="G85" t="s">
         <v>5</v>
@@ -5121,19 +5124,19 @@
         <v>251</v>
       </c>
       <c r="B86" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" t="s">
         <v>252</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>31840009843063</v>
       </c>
-      <c r="D86" t="s">
-        <v>2</v>
-      </c>
       <c r="E86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="G86" t="s">
         <v>5</v>
@@ -5144,19 +5147,19 @@
         <v>254</v>
       </c>
       <c r="B87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" t="s">
         <v>255</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>31840003993872</v>
       </c>
-      <c r="D87" t="s">
-        <v>2</v>
-      </c>
       <c r="E87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
@@ -5167,19 +5170,19 @@
         <v>257</v>
       </c>
       <c r="B88" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" t="s">
         <v>258</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>31840007079033</v>
       </c>
-      <c r="D88" t="s">
-        <v>2</v>
-      </c>
       <c r="E88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>259</v>
+        <v>3</v>
       </c>
       <c r="G88" t="s">
         <v>5</v>
@@ -5190,19 +5193,19 @@
         <v>260</v>
       </c>
       <c r="B89" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" t="s">
         <v>261</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>31840001861899</v>
       </c>
-      <c r="D89" t="s">
-        <v>2</v>
-      </c>
       <c r="E89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>262</v>
+        <v>3</v>
       </c>
       <c r="G89" t="s">
         <v>5</v>
@@ -5213,19 +5216,19 @@
         <v>263</v>
       </c>
       <c r="B90" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" t="s">
         <v>264</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>31840009835382</v>
       </c>
-      <c r="D90" t="s">
-        <v>2</v>
-      </c>
       <c r="E90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="G90" t="s">
         <v>5</v>
@@ -5236,19 +5239,19 @@
         <v>266</v>
       </c>
       <c r="B91" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" t="s">
         <v>267</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>31840005749108</v>
       </c>
-      <c r="D91" t="s">
-        <v>2</v>
-      </c>
       <c r="E91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="G91" t="s">
         <v>5</v>
@@ -5259,19 +5262,19 @@
         <v>269</v>
       </c>
       <c r="B92" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s">
         <v>270</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>31840001724154</v>
       </c>
-      <c r="D92" t="s">
-        <v>2</v>
-      </c>
       <c r="E92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
       <c r="G92" t="s">
         <v>5</v>
@@ -5282,19 +5285,19 @@
         <v>272</v>
       </c>
       <c r="B93" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" t="s">
         <v>273</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>31840009976137</v>
       </c>
-      <c r="D93" t="s">
-        <v>2</v>
-      </c>
       <c r="E93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>274</v>
+        <v>3</v>
       </c>
       <c r="G93" t="s">
         <v>5</v>
@@ -5305,19 +5308,19 @@
         <v>275</v>
       </c>
       <c r="B94" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" t="s">
         <v>276</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>31840001554718</v>
       </c>
-      <c r="D94" t="s">
-        <v>2</v>
-      </c>
       <c r="E94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>277</v>
+        <v>3</v>
       </c>
       <c r="G94" t="s">
         <v>5</v>
@@ -5328,19 +5331,19 @@
         <v>278</v>
       </c>
       <c r="B95" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" t="s">
         <v>279</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>31840002696203</v>
       </c>
-      <c r="D95" t="s">
-        <v>2</v>
-      </c>
       <c r="E95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="G95" t="s">
         <v>5</v>
@@ -5351,19 +5354,19 @@
         <v>281</v>
       </c>
       <c r="B96" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" t="s">
         <v>282</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>31840004001139</v>
       </c>
-      <c r="D96" t="s">
-        <v>2</v>
-      </c>
       <c r="E96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>283</v>
+        <v>3</v>
       </c>
       <c r="G96" t="s">
         <v>5</v>
@@ -5374,19 +5377,19 @@
         <v>284</v>
       </c>
       <c r="B97" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" t="s">
         <v>285</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>31840009848120</v>
       </c>
-      <c r="D97" t="s">
-        <v>2</v>
-      </c>
       <c r="E97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>286</v>
+        <v>3</v>
       </c>
       <c r="G97" t="s">
         <v>5</v>
@@ -5397,19 +5400,19 @@
         <v>287</v>
       </c>
       <c r="B98" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" t="s">
         <v>288</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>31840003876192</v>
       </c>
-      <c r="D98" t="s">
-        <v>2</v>
-      </c>
       <c r="E98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>289</v>
+        <v>3</v>
       </c>
       <c r="G98" t="s">
         <v>5</v>
@@ -5420,19 +5423,19 @@
         <v>290</v>
       </c>
       <c r="B99" t="s">
+        <v>292</v>
+      </c>
+      <c r="C99" t="s">
         <v>291</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>31840001861907</v>
       </c>
-      <c r="D99" t="s">
-        <v>2</v>
-      </c>
       <c r="E99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>292</v>
+        <v>3</v>
       </c>
       <c r="G99" t="s">
         <v>5</v>
@@ -5443,19 +5446,19 @@
         <v>293</v>
       </c>
       <c r="B100" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" t="s">
         <v>294</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>31840000984924</v>
       </c>
-      <c r="D100" t="s">
-        <v>2</v>
-      </c>
       <c r="E100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="G100" t="s">
         <v>5</v>
@@ -5466,19 +5469,19 @@
         <v>296</v>
       </c>
       <c r="B101" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" t="s">
         <v>297</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>31840009204647</v>
       </c>
-      <c r="D101" t="s">
-        <v>2</v>
-      </c>
       <c r="E101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>298</v>
+        <v>3</v>
       </c>
       <c r="G101" t="s">
         <v>5</v>
@@ -5489,19 +5492,19 @@
         <v>299</v>
       </c>
       <c r="B102" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" t="s">
         <v>300</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>31840009074008</v>
       </c>
-      <c r="D102" t="s">
-        <v>2</v>
-      </c>
       <c r="E102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F102" t="s">
-        <v>301</v>
+        <v>3</v>
       </c>
       <c r="G102" t="s">
         <v>5</v>
@@ -5512,19 +5515,19 @@
         <v>302</v>
       </c>
       <c r="B103" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" t="s">
         <v>303</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>31840001861915</v>
       </c>
-      <c r="D103" t="s">
-        <v>2</v>
-      </c>
       <c r="E103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>304</v>
+        <v>3</v>
       </c>
       <c r="G103" t="s">
         <v>5</v>
@@ -5535,19 +5538,19 @@
         <v>305</v>
       </c>
       <c r="B104" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" t="s">
         <v>306</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>31840002253849</v>
       </c>
-      <c r="D104" t="s">
-        <v>2</v>
-      </c>
       <c r="E104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>307</v>
+        <v>3</v>
       </c>
       <c r="G104" t="s">
         <v>5</v>
@@ -5558,19 +5561,19 @@
         <v>308</v>
       </c>
       <c r="B105" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" t="s">
         <v>309</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>31840000980955</v>
       </c>
-      <c r="D105" t="s">
-        <v>2</v>
-      </c>
       <c r="E105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>310</v>
+        <v>3</v>
       </c>
       <c r="G105" t="s">
         <v>5</v>
@@ -5581,19 +5584,19 @@
         <v>311</v>
       </c>
       <c r="B106" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" t="s">
         <v>312</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>31840000854077</v>
       </c>
-      <c r="D106" t="s">
-        <v>2</v>
-      </c>
       <c r="E106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F106" t="s">
-        <v>313</v>
+        <v>3</v>
       </c>
       <c r="G106" t="s">
         <v>5</v>
@@ -5604,19 +5607,19 @@
         <v>314</v>
       </c>
       <c r="B107" t="s">
+        <v>316</v>
+      </c>
+      <c r="C107" t="s">
         <v>315</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>31840008137582</v>
       </c>
-      <c r="D107" t="s">
-        <v>2</v>
-      </c>
       <c r="E107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F107" t="s">
-        <v>316</v>
+        <v>3</v>
       </c>
       <c r="G107" t="s">
         <v>5</v>
@@ -5627,19 +5630,19 @@
         <v>317</v>
       </c>
       <c r="B108" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" t="s">
         <v>318</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>31840007098223</v>
       </c>
-      <c r="D108" t="s">
-        <v>2</v>
-      </c>
       <c r="E108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>319</v>
+        <v>3</v>
       </c>
       <c r="G108" t="s">
         <v>5</v>
@@ -5650,19 +5653,19 @@
         <v>320</v>
       </c>
       <c r="B109" t="s">
+        <v>322</v>
+      </c>
+      <c r="C109" t="s">
         <v>321</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>31840009078744</v>
       </c>
-      <c r="D109" t="s">
-        <v>2</v>
-      </c>
       <c r="E109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109" t="s">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="G109" t="s">
         <v>5</v>
@@ -5673,19 +5676,19 @@
         <v>323</v>
       </c>
       <c r="B110" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" t="s">
         <v>324</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>31840005421930</v>
       </c>
-      <c r="D110" t="s">
-        <v>2</v>
-      </c>
       <c r="E110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>325</v>
+        <v>3</v>
       </c>
       <c r="G110" t="s">
         <v>5</v>
@@ -5696,19 +5699,19 @@
         <v>326</v>
       </c>
       <c r="B111" t="s">
+        <v>328</v>
+      </c>
+      <c r="C111" t="s">
         <v>327</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>31840001861923</v>
       </c>
-      <c r="D111" t="s">
-        <v>2</v>
-      </c>
       <c r="E111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>328</v>
+        <v>3</v>
       </c>
       <c r="G111" t="s">
         <v>5</v>
@@ -5719,19 +5722,19 @@
         <v>329</v>
       </c>
       <c r="B112" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" t="s">
         <v>330</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>31840004675882</v>
       </c>
-      <c r="D112" t="s">
-        <v>2</v>
-      </c>
       <c r="E112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>331</v>
+        <v>3</v>
       </c>
       <c r="G112" t="s">
         <v>5</v>
@@ -5742,19 +5745,19 @@
         <v>332</v>
       </c>
       <c r="B113" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" t="s">
         <v>333</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>31840000349987</v>
       </c>
-      <c r="D113" t="s">
-        <v>2</v>
-      </c>
       <c r="E113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>334</v>
+        <v>3</v>
       </c>
       <c r="G113" t="s">
         <v>5</v>
@@ -5765,19 +5768,19 @@
         <v>335</v>
       </c>
       <c r="B114" t="s">
+        <v>337</v>
+      </c>
+      <c r="C114" t="s">
         <v>336</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>31840003724046</v>
       </c>
-      <c r="D114" t="s">
-        <v>2</v>
-      </c>
       <c r="E114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F114" t="s">
-        <v>337</v>
+        <v>3</v>
       </c>
       <c r="G114" t="s">
         <v>5</v>
@@ -5788,19 +5791,19 @@
         <v>338</v>
       </c>
       <c r="B115" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" t="s">
         <v>339</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>31840009058571</v>
       </c>
-      <c r="D115" t="s">
-        <v>2</v>
-      </c>
       <c r="E115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F115" t="s">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="G115" t="s">
         <v>5</v>
@@ -5811,19 +5814,19 @@
         <v>341</v>
       </c>
       <c r="B116" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" t="s">
         <v>342</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>31840001863044</v>
       </c>
-      <c r="D116" t="s">
-        <v>2</v>
-      </c>
       <c r="E116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F116" t="s">
-        <v>343</v>
+        <v>3</v>
       </c>
       <c r="G116" t="s">
         <v>5</v>
@@ -5834,19 +5837,19 @@
         <v>344</v>
       </c>
       <c r="B117" t="s">
+        <v>346</v>
+      </c>
+      <c r="C117" t="s">
         <v>345</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>31840004670776</v>
       </c>
-      <c r="D117" t="s">
-        <v>2</v>
-      </c>
       <c r="E117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F117" t="s">
-        <v>346</v>
+        <v>3</v>
       </c>
       <c r="G117" t="s">
         <v>5</v>
@@ -5857,19 +5860,19 @@
         <v>347</v>
       </c>
       <c r="B118" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" t="s">
         <v>348</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>31840002012302</v>
       </c>
-      <c r="D118" t="s">
-        <v>2</v>
-      </c>
       <c r="E118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>349</v>
+        <v>3</v>
       </c>
       <c r="G118" t="s">
         <v>5</v>
@@ -5880,19 +5883,19 @@
         <v>350</v>
       </c>
       <c r="B119" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" t="s">
         <v>351</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>31840003118637</v>
       </c>
-      <c r="D119" t="s">
-        <v>2</v>
-      </c>
       <c r="E119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F119" t="s">
-        <v>352</v>
+        <v>3</v>
       </c>
       <c r="G119" t="s">
         <v>5</v>
@@ -5903,19 +5906,19 @@
         <v>353</v>
       </c>
       <c r="B120" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" t="s">
         <v>351</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>31840003461904</v>
       </c>
-      <c r="D120" t="s">
-        <v>2</v>
-      </c>
       <c r="E120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>354</v>
+        <v>3</v>
       </c>
       <c r="G120" t="s">
         <v>5</v>
@@ -5926,19 +5929,19 @@
         <v>355</v>
       </c>
       <c r="B121" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" t="s">
         <v>356</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>31840000005274</v>
       </c>
-      <c r="D121" t="s">
-        <v>2</v>
-      </c>
       <c r="E121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F121" t="s">
-        <v>357</v>
+        <v>3</v>
       </c>
       <c r="G121" t="s">
         <v>5</v>
@@ -5949,19 +5952,19 @@
         <v>358</v>
       </c>
       <c r="B122" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" t="s">
         <v>359</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>31840003353069</v>
       </c>
-      <c r="D122" t="s">
-        <v>2</v>
-      </c>
       <c r="E122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>360</v>
+        <v>3</v>
       </c>
       <c r="G122" t="s">
         <v>5</v>
@@ -5972,19 +5975,19 @@
         <v>361</v>
       </c>
       <c r="B123" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" t="s">
         <v>362</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>31840009835846</v>
       </c>
-      <c r="D123" t="s">
-        <v>2</v>
-      </c>
       <c r="E123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>363</v>
+        <v>3</v>
       </c>
       <c r="G123" t="s">
         <v>5</v>
@@ -5995,19 +5998,19 @@
         <v>364</v>
       </c>
       <c r="B124" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" t="s">
         <v>365</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>31840005294493</v>
       </c>
-      <c r="D124" t="s">
-        <v>2</v>
-      </c>
       <c r="E124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="G124" t="s">
         <v>5</v>
@@ -6018,19 +6021,19 @@
         <v>367</v>
       </c>
       <c r="B125" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" t="s">
         <v>368</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>31840009750730</v>
       </c>
-      <c r="D125" t="s">
-        <v>2</v>
-      </c>
       <c r="E125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>369</v>
+        <v>3</v>
       </c>
       <c r="G125" t="s">
         <v>5</v>
@@ -6041,19 +6044,19 @@
         <v>370</v>
       </c>
       <c r="B126" t="s">
+        <v>372</v>
+      </c>
+      <c r="C126" t="s">
         <v>371</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>31840003736529</v>
       </c>
-      <c r="D126" t="s">
-        <v>2</v>
-      </c>
       <c r="E126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>372</v>
+        <v>3</v>
       </c>
       <c r="G126" t="s">
         <v>5</v>
@@ -6064,19 +6067,19 @@
         <v>373</v>
       </c>
       <c r="B127" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" t="s">
         <v>374</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>31840001861931</v>
       </c>
-      <c r="D127" t="s">
-        <v>2</v>
-      </c>
       <c r="E127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>375</v>
+        <v>3</v>
       </c>
       <c r="G127" t="s">
         <v>5</v>
@@ -6087,19 +6090,19 @@
         <v>376</v>
       </c>
       <c r="B128" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" t="s">
         <v>377</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>31840003118660</v>
       </c>
-      <c r="D128" t="s">
-        <v>2</v>
-      </c>
       <c r="E128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="G128" t="s">
         <v>5</v>
@@ -6110,19 +6113,19 @@
         <v>379</v>
       </c>
       <c r="B129" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" t="s">
         <v>380</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>31840008011381</v>
       </c>
-      <c r="D129" t="s">
-        <v>2</v>
-      </c>
       <c r="E129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>381</v>
+        <v>3</v>
       </c>
       <c r="G129" t="s">
         <v>5</v>
@@ -6133,19 +6136,19 @@
         <v>382</v>
       </c>
       <c r="B130" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" t="s">
         <v>383</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>31840005283850</v>
       </c>
-      <c r="D130" t="s">
-        <v>2</v>
-      </c>
       <c r="E130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>384</v>
+        <v>3</v>
       </c>
       <c r="G130" t="s">
         <v>5</v>
@@ -6156,19 +6159,19 @@
         <v>385</v>
       </c>
       <c r="B131" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" t="s">
         <v>386</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>31840009757008</v>
       </c>
-      <c r="D131" t="s">
-        <v>2</v>
-      </c>
       <c r="E131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>387</v>
+        <v>3</v>
       </c>
       <c r="G131" t="s">
         <v>5</v>
@@ -6179,19 +6182,19 @@
         <v>388</v>
       </c>
       <c r="B132" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" t="s">
         <v>389</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>31840001861949</v>
       </c>
-      <c r="D132" t="s">
-        <v>2</v>
-      </c>
       <c r="E132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="G132" t="s">
         <v>5</v>
@@ -6202,19 +6205,19 @@
         <v>391</v>
       </c>
       <c r="B133" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" t="s">
         <v>392</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>31840003702620</v>
       </c>
-      <c r="D133" t="s">
-        <v>2</v>
-      </c>
       <c r="E133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F133" t="s">
-        <v>393</v>
+        <v>3</v>
       </c>
       <c r="G133" t="s">
         <v>5</v>
@@ -6225,19 +6228,19 @@
         <v>394</v>
       </c>
       <c r="B134" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" t="s">
         <v>395</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>31840009077704</v>
       </c>
-      <c r="D134" t="s">
-        <v>2</v>
-      </c>
       <c r="E134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>396</v>
+        <v>3</v>
       </c>
       <c r="G134" t="s">
         <v>5</v>
@@ -6248,19 +6251,19 @@
         <v>397</v>
       </c>
       <c r="B135" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" t="s">
         <v>398</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>31840007064803</v>
       </c>
-      <c r="D135" t="s">
-        <v>2</v>
-      </c>
       <c r="E135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>399</v>
+        <v>3</v>
       </c>
       <c r="G135" t="s">
         <v>5</v>
@@ -6271,19 +6274,19 @@
         <v>400</v>
       </c>
       <c r="B136" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" t="s">
         <v>401</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>31840004733327</v>
       </c>
-      <c r="D136" t="s">
-        <v>2</v>
-      </c>
       <c r="E136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>402</v>
+        <v>3</v>
       </c>
       <c r="G136" t="s">
         <v>5</v>
@@ -6294,19 +6297,19 @@
         <v>403</v>
       </c>
       <c r="B137" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" t="s">
         <v>404</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>31840009985799</v>
       </c>
-      <c r="D137" t="s">
-        <v>2</v>
-      </c>
       <c r="E137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>405</v>
+        <v>3</v>
       </c>
       <c r="G137" t="s">
         <v>5</v>
@@ -6317,19 +6320,19 @@
         <v>406</v>
       </c>
       <c r="B138" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" t="s">
         <v>407</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>31840009756505</v>
       </c>
-      <c r="D138" t="s">
-        <v>2</v>
-      </c>
       <c r="E138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F138" t="s">
-        <v>408</v>
+        <v>3</v>
       </c>
       <c r="G138" t="s">
         <v>5</v>
@@ -6340,19 +6343,19 @@
         <v>409</v>
       </c>
       <c r="B139" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" t="s">
         <v>410</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>31840009073836</v>
       </c>
-      <c r="D139" t="s">
-        <v>2</v>
-      </c>
       <c r="E139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="G139" t="s">
         <v>5</v>
@@ -6363,19 +6366,19 @@
         <v>412</v>
       </c>
       <c r="B140" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" t="s">
         <v>413</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>31840005300217</v>
       </c>
-      <c r="D140" t="s">
-        <v>2</v>
-      </c>
       <c r="E140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>414</v>
+        <v>3</v>
       </c>
       <c r="G140" t="s">
         <v>5</v>
@@ -6386,19 +6389,19 @@
         <v>415</v>
       </c>
       <c r="B141" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" t="s">
         <v>416</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>31840001861956</v>
       </c>
-      <c r="D141" t="s">
-        <v>2</v>
-      </c>
       <c r="E141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>417</v>
+        <v>3</v>
       </c>
       <c r="G141" t="s">
         <v>5</v>
@@ -6409,19 +6412,19 @@
         <v>418</v>
       </c>
       <c r="B142" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" t="s">
         <v>419</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>31840004250215</v>
       </c>
-      <c r="D142" t="s">
-        <v>2</v>
-      </c>
       <c r="E142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F142" t="s">
-        <v>420</v>
+        <v>3</v>
       </c>
       <c r="G142" t="s">
         <v>5</v>
@@ -6432,19 +6435,19 @@
         <v>421</v>
       </c>
       <c r="B143" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" t="s">
         <v>422</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>31840007100656</v>
       </c>
-      <c r="D143" t="s">
-        <v>2</v>
-      </c>
       <c r="E143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F143" t="s">
-        <v>423</v>
+        <v>3</v>
       </c>
       <c r="G143" t="s">
         <v>5</v>
@@ -6455,19 +6458,19 @@
         <v>424</v>
       </c>
       <c r="B144" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" t="s">
         <v>425</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>31840008134407</v>
       </c>
-      <c r="D144" t="s">
-        <v>2</v>
-      </c>
       <c r="E144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F144" t="s">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="G144" t="s">
         <v>5</v>
@@ -6478,19 +6481,19 @@
         <v>427</v>
       </c>
       <c r="B145" t="s">
+        <v>429</v>
+      </c>
+      <c r="C145" t="s">
         <v>428</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>31840007084389</v>
       </c>
-      <c r="D145" t="s">
-        <v>2</v>
-      </c>
       <c r="E145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F145" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
       <c r="G145" t="s">
         <v>5</v>
@@ -6501,19 +6504,19 @@
         <v>430</v>
       </c>
       <c r="B146" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" t="s">
         <v>431</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>31840001348970</v>
       </c>
-      <c r="D146" t="s">
-        <v>2</v>
-      </c>
       <c r="E146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>432</v>
+        <v>3</v>
       </c>
       <c r="G146" t="s">
         <v>5</v>
@@ -6524,19 +6527,19 @@
         <v>433</v>
       </c>
       <c r="B147" t="s">
+        <v>435</v>
+      </c>
+      <c r="C147" t="s">
         <v>434</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>31840002362228</v>
       </c>
-      <c r="D147" t="s">
-        <v>2</v>
-      </c>
       <c r="E147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F147" t="s">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="G147" t="s">
         <v>5</v>
@@ -6547,19 +6550,19 @@
         <v>436</v>
       </c>
       <c r="B148" t="s">
+        <v>438</v>
+      </c>
+      <c r="C148" t="s">
         <v>437</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>31840002865451</v>
       </c>
-      <c r="D148" t="s">
-        <v>2</v>
-      </c>
       <c r="E148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F148" t="s">
-        <v>438</v>
+        <v>3</v>
       </c>
       <c r="G148" t="s">
         <v>5</v>
@@ -6570,19 +6573,19 @@
         <v>439</v>
       </c>
       <c r="B149" t="s">
+        <v>441</v>
+      </c>
+      <c r="C149" t="s">
         <v>440</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>31840002670877</v>
       </c>
-      <c r="D149" t="s">
-        <v>2</v>
-      </c>
       <c r="E149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F149" t="s">
-        <v>441</v>
+        <v>3</v>
       </c>
       <c r="G149" t="s">
         <v>5</v>
@@ -6593,19 +6596,19 @@
         <v>442</v>
       </c>
       <c r="B150" t="s">
+        <v>444</v>
+      </c>
+      <c r="C150" t="s">
         <v>443</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>31840004759470</v>
       </c>
-      <c r="D150" t="s">
-        <v>2</v>
-      </c>
       <c r="E150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F150" t="s">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="G150" t="s">
         <v>5</v>
@@ -6616,19 +6619,19 @@
         <v>445</v>
       </c>
       <c r="B151" t="s">
+        <v>447</v>
+      </c>
+      <c r="C151" t="s">
         <v>446</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>31840009840440</v>
       </c>
-      <c r="D151" t="s">
-        <v>2</v>
-      </c>
       <c r="E151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F151" t="s">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="G151" t="s">
         <v>5</v>
@@ -6639,19 +6642,19 @@
         <v>448</v>
       </c>
       <c r="B152" t="s">
+        <v>450</v>
+      </c>
+      <c r="C152" t="s">
         <v>449</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>31840009850282</v>
       </c>
-      <c r="D152" t="s">
-        <v>2</v>
-      </c>
       <c r="E152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>450</v>
+        <v>3</v>
       </c>
       <c r="G152" t="s">
         <v>5</v>
@@ -6662,19 +6665,19 @@
         <v>451</v>
       </c>
       <c r="B153" t="s">
+        <v>453</v>
+      </c>
+      <c r="C153" t="s">
         <v>452</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>31840005421997</v>
       </c>
-      <c r="D153" t="s">
-        <v>2</v>
-      </c>
       <c r="E153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F153" t="s">
-        <v>453</v>
+        <v>3</v>
       </c>
       <c r="G153" t="s">
         <v>5</v>
@@ -6685,19 +6688,19 @@
         <v>454</v>
       </c>
       <c r="B154" t="s">
+        <v>456</v>
+      </c>
+      <c r="C154" t="s">
         <v>455</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>31840007995501</v>
       </c>
-      <c r="D154" t="s">
-        <v>2</v>
-      </c>
       <c r="E154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="G154" t="s">
         <v>5</v>
@@ -6708,19 +6711,19 @@
         <v>457</v>
       </c>
       <c r="B155" t="s">
+        <v>459</v>
+      </c>
+      <c r="C155" t="s">
         <v>458</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>31840009767122</v>
       </c>
-      <c r="D155" t="s">
-        <v>2</v>
-      </c>
       <c r="E155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="G155" t="s">
         <v>5</v>
@@ -6731,19 +6734,19 @@
         <v>460</v>
       </c>
       <c r="B156" t="s">
+        <v>462</v>
+      </c>
+      <c r="C156" t="s">
         <v>461</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>31840007094263</v>
       </c>
-      <c r="D156" t="s">
-        <v>2</v>
-      </c>
       <c r="E156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>462</v>
+        <v>3</v>
       </c>
       <c r="G156" t="s">
         <v>5</v>
@@ -6754,19 +6757,19 @@
         <v>463</v>
       </c>
       <c r="B157" t="s">
+        <v>465</v>
+      </c>
+      <c r="C157" t="s">
         <v>464</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>31840004548840</v>
       </c>
-      <c r="D157" t="s">
-        <v>2</v>
-      </c>
       <c r="E157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="G157" t="s">
         <v>5</v>
@@ -6777,19 +6780,19 @@
         <v>466</v>
       </c>
       <c r="B158" t="s">
+        <v>468</v>
+      </c>
+      <c r="C158" t="s">
         <v>467</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>31840005422052</v>
       </c>
-      <c r="D158" t="s">
-        <v>2</v>
-      </c>
       <c r="E158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F158" t="s">
-        <v>468</v>
+        <v>3</v>
       </c>
       <c r="G158" t="s">
         <v>73</v>
@@ -6800,19 +6803,19 @@
         <v>469</v>
       </c>
       <c r="B159" t="s">
+        <v>471</v>
+      </c>
+      <c r="C159" t="s">
         <v>470</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>31840002824680</v>
       </c>
-      <c r="D159" t="s">
-        <v>2</v>
-      </c>
       <c r="E159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F159" t="s">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="G159" t="s">
         <v>5</v>
@@ -6823,19 +6826,19 @@
         <v>472</v>
       </c>
       <c r="B160" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" t="s">
         <v>473</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>31840009731870</v>
       </c>
-      <c r="D160" t="s">
-        <v>2</v>
-      </c>
       <c r="E160" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
         <v>51</v>
-      </c>
-      <c r="F160" t="s">
-        <v>474</v>
       </c>
       <c r="G160" t="s">
         <v>5</v>
@@ -6846,19 +6849,19 @@
         <v>475</v>
       </c>
       <c r="B161" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" t="s">
         <v>476</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>31840009846082</v>
       </c>
-      <c r="D161" t="s">
-        <v>2</v>
-      </c>
       <c r="E161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F161" t="s">
-        <v>477</v>
+        <v>3</v>
       </c>
       <c r="G161" t="s">
         <v>5</v>
@@ -6869,19 +6872,19 @@
         <v>478</v>
       </c>
       <c r="B162" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" t="s">
         <v>479</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>31840009108376</v>
       </c>
-      <c r="D162" t="s">
-        <v>2</v>
-      </c>
       <c r="E162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="G162" t="s">
         <v>5</v>
@@ -6892,19 +6895,19 @@
         <v>481</v>
       </c>
       <c r="B163" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" t="s">
         <v>482</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>31840002660183</v>
       </c>
-      <c r="D163" t="s">
-        <v>2</v>
-      </c>
       <c r="E163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F163" t="s">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="G163" t="s">
         <v>5</v>
@@ -6915,19 +6918,19 @@
         <v>484</v>
       </c>
       <c r="B164" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" t="s">
         <v>485</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>31840008097166</v>
       </c>
-      <c r="D164" t="s">
-        <v>2</v>
-      </c>
       <c r="E164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F164" t="s">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="G164" t="s">
         <v>5</v>
@@ -6938,19 +6941,19 @@
         <v>487</v>
       </c>
       <c r="B165" t="s">
+        <v>489</v>
+      </c>
+      <c r="C165" t="s">
         <v>488</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>31840009762255</v>
       </c>
-      <c r="D165" t="s">
-        <v>2</v>
-      </c>
       <c r="E165" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F165" t="s">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="G165" t="s">
         <v>5</v>
@@ -6961,19 +6964,19 @@
         <v>490</v>
       </c>
       <c r="B166" t="s">
+        <v>492</v>
+      </c>
+      <c r="C166" t="s">
         <v>491</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>31840004732287</v>
       </c>
-      <c r="D166" t="s">
-        <v>2</v>
-      </c>
       <c r="E166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F166" t="s">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="G166" t="s">
         <v>5</v>
@@ -6984,19 +6987,19 @@
         <v>493</v>
       </c>
       <c r="B167" t="s">
+        <v>495</v>
+      </c>
+      <c r="C167" t="s">
         <v>494</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>31840000893422</v>
       </c>
-      <c r="D167" t="s">
-        <v>2</v>
-      </c>
       <c r="E167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F167" t="s">
-        <v>495</v>
+        <v>3</v>
       </c>
       <c r="G167" t="s">
         <v>5</v>
@@ -7007,19 +7010,19 @@
         <v>496</v>
       </c>
       <c r="B168" t="s">
+        <v>498</v>
+      </c>
+      <c r="C168" t="s">
         <v>497</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>31840007103254</v>
       </c>
-      <c r="D168" t="s">
-        <v>2</v>
-      </c>
       <c r="E168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F168" t="s">
-        <v>498</v>
+        <v>3</v>
       </c>
       <c r="G168" t="s">
         <v>5</v>
@@ -7030,19 +7033,19 @@
         <v>499</v>
       </c>
       <c r="B169" t="s">
+        <v>501</v>
+      </c>
+      <c r="C169" t="s">
         <v>500</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <v>31840009751068</v>
       </c>
-      <c r="D169" t="s">
-        <v>2</v>
-      </c>
       <c r="E169" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F169" t="s">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="G169" t="s">
         <v>5</v>
@@ -7053,19 +7056,19 @@
         <v>502</v>
       </c>
       <c r="B170" t="s">
+        <v>504</v>
+      </c>
+      <c r="C170" t="s">
         <v>503</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>31840009104482</v>
       </c>
-      <c r="D170" t="s">
-        <v>2</v>
-      </c>
       <c r="E170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F170" t="s">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="G170" t="s">
         <v>5</v>
@@ -7076,19 +7079,19 @@
         <v>505</v>
       </c>
       <c r="B171" t="s">
+        <v>507</v>
+      </c>
+      <c r="C171" t="s">
         <v>506</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>31840003839034</v>
       </c>
-      <c r="D171" t="s">
-        <v>2</v>
-      </c>
       <c r="E171" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F171" t="s">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="G171" t="s">
         <v>5</v>
@@ -7099,19 +7102,19 @@
         <v>508</v>
       </c>
       <c r="B172" t="s">
+        <v>510</v>
+      </c>
+      <c r="C172" t="s">
         <v>509</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>31840007997820</v>
       </c>
-      <c r="D172" t="s">
-        <v>2</v>
-      </c>
       <c r="E172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F172" t="s">
-        <v>510</v>
+        <v>3</v>
       </c>
       <c r="G172" t="s">
         <v>5</v>
@@ -7122,19 +7125,19 @@
         <v>511</v>
       </c>
       <c r="B173" t="s">
+        <v>513</v>
+      </c>
+      <c r="C173" t="s">
         <v>512</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>31840004701480</v>
       </c>
-      <c r="D173" t="s">
-        <v>2</v>
-      </c>
       <c r="E173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F173" t="s">
-        <v>513</v>
+        <v>3</v>
       </c>
       <c r="G173" t="s">
         <v>5</v>
@@ -7145,19 +7148,19 @@
         <v>514</v>
       </c>
       <c r="B174" t="s">
+        <v>516</v>
+      </c>
+      <c r="C174" t="s">
         <v>515</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>31840001861964</v>
       </c>
-      <c r="D174" t="s">
-        <v>2</v>
-      </c>
       <c r="E174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F174" t="s">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="G174" t="s">
         <v>5</v>
@@ -7168,19 +7171,19 @@
         <v>517</v>
       </c>
       <c r="B175" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" t="s">
         <v>518</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>31840004729473</v>
       </c>
-      <c r="D175" t="s">
-        <v>2</v>
-      </c>
       <c r="E175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F175" t="s">
-        <v>519</v>
+        <v>3</v>
       </c>
       <c r="G175" t="s">
         <v>5</v>
@@ -7191,19 +7194,19 @@
         <v>520</v>
       </c>
       <c r="B176" t="s">
+        <v>522</v>
+      </c>
+      <c r="C176" t="s">
         <v>521</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>31840005422177</v>
       </c>
-      <c r="D176" t="s">
-        <v>2</v>
-      </c>
       <c r="E176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="G176" t="s">
         <v>5</v>
@@ -7214,19 +7217,19 @@
         <v>523</v>
       </c>
       <c r="B177" t="s">
+        <v>525</v>
+      </c>
+      <c r="C177" t="s">
         <v>524</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>31840001645342</v>
       </c>
-      <c r="D177" t="s">
-        <v>2</v>
-      </c>
       <c r="E177" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F177" t="s">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="G177" t="s">
         <v>5</v>
@@ -7237,19 +7240,19 @@
         <v>526</v>
       </c>
       <c r="B178" t="s">
+        <v>528</v>
+      </c>
+      <c r="C178" t="s">
         <v>527</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>31840011133479</v>
       </c>
-      <c r="D178" t="s">
-        <v>2</v>
-      </c>
       <c r="E178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F178" t="s">
-        <v>528</v>
+        <v>3</v>
       </c>
       <c r="G178" t="s">
         <v>5</v>
@@ -7260,19 +7263,19 @@
         <v>529</v>
       </c>
       <c r="B179" t="s">
+        <v>531</v>
+      </c>
+      <c r="C179" t="s">
         <v>530</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>31840008116115</v>
       </c>
-      <c r="D179" t="s">
-        <v>2</v>
-      </c>
       <c r="E179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F179" t="s">
-        <v>531</v>
+        <v>3</v>
       </c>
       <c r="G179" t="s">
         <v>5</v>
@@ -7283,19 +7286,19 @@
         <v>532</v>
       </c>
       <c r="B180" t="s">
+        <v>534</v>
+      </c>
+      <c r="C180" t="s">
         <v>533</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>31840002012310</v>
       </c>
-      <c r="D180" t="s">
-        <v>2</v>
-      </c>
       <c r="E180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F180" t="s">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="G180" t="s">
         <v>5</v>
@@ -7306,19 +7309,19 @@
         <v>535</v>
       </c>
       <c r="B181" t="s">
+        <v>537</v>
+      </c>
+      <c r="C181" t="s">
         <v>536</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>31840003968510</v>
       </c>
-      <c r="D181" t="s">
-        <v>2</v>
-      </c>
       <c r="E181" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F181" t="s">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="G181" t="s">
         <v>5</v>
@@ -7329,19 +7332,19 @@
         <v>538</v>
       </c>
       <c r="B182" t="s">
+        <v>540</v>
+      </c>
+      <c r="C182" t="s">
         <v>539</v>
       </c>
-      <c r="C182">
+      <c r="D182">
         <v>31840008118665</v>
       </c>
-      <c r="D182" t="s">
-        <v>2</v>
-      </c>
       <c r="E182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>540</v>
+        <v>3</v>
       </c>
       <c r="G182" t="s">
         <v>5</v>
@@ -7352,19 +7355,19 @@
         <v>541</v>
       </c>
       <c r="B183" t="s">
+        <v>543</v>
+      </c>
+      <c r="C183" t="s">
         <v>542</v>
       </c>
-      <c r="C183">
+      <c r="D183">
         <v>31840002815340</v>
       </c>
-      <c r="D183" t="s">
-        <v>2</v>
-      </c>
       <c r="E183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F183" t="s">
-        <v>543</v>
+        <v>3</v>
       </c>
       <c r="G183" t="s">
         <v>5</v>
@@ -7375,19 +7378,19 @@
         <v>544</v>
       </c>
       <c r="B184" t="s">
+        <v>546</v>
+      </c>
+      <c r="C184" t="s">
         <v>545</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <v>31840002479337</v>
       </c>
-      <c r="D184" t="s">
-        <v>2</v>
-      </c>
       <c r="E184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>546</v>
+        <v>3</v>
       </c>
       <c r="G184" t="s">
         <v>5</v>
@@ -7398,19 +7401,19 @@
         <v>547</v>
       </c>
       <c r="B185" t="s">
+        <v>549</v>
+      </c>
+      <c r="C185" t="s">
         <v>548</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <v>31840009752645</v>
       </c>
-      <c r="D185" t="s">
-        <v>2</v>
-      </c>
       <c r="E185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F185" t="s">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="G185" t="s">
         <v>5</v>
@@ -7421,19 +7424,19 @@
         <v>550</v>
       </c>
       <c r="B186" t="s">
+        <v>552</v>
+      </c>
+      <c r="C186" t="s">
         <v>551</v>
       </c>
-      <c r="C186">
+      <c r="D186">
         <v>31840007174446</v>
       </c>
-      <c r="D186" t="s">
-        <v>2</v>
-      </c>
       <c r="E186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>552</v>
+        <v>3</v>
       </c>
       <c r="G186" t="s">
         <v>5</v>
@@ -7444,19 +7447,19 @@
         <v>553</v>
       </c>
       <c r="B187" t="s">
+        <v>555</v>
+      </c>
+      <c r="C187" t="s">
         <v>554</v>
       </c>
-      <c r="C187">
+      <c r="D187">
         <v>31840001399403</v>
       </c>
-      <c r="D187" t="s">
-        <v>2</v>
-      </c>
       <c r="E187" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F187" t="s">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="G187" t="s">
         <v>5</v>
@@ -7467,19 +7470,19 @@
         <v>556</v>
       </c>
       <c r="B188" t="s">
+        <v>558</v>
+      </c>
+      <c r="C188" t="s">
         <v>557</v>
       </c>
-      <c r="C188">
+      <c r="D188">
         <v>31840009776909</v>
       </c>
-      <c r="D188" t="s">
-        <v>2</v>
-      </c>
       <c r="E188" t="s">
+        <v>2</v>
+      </c>
+      <c r="F188" t="s">
         <v>51</v>
-      </c>
-      <c r="F188" t="s">
-        <v>558</v>
       </c>
       <c r="G188" t="s">
         <v>5</v>
@@ -7490,19 +7493,19 @@
         <v>559</v>
       </c>
       <c r="B189" t="s">
+        <v>561</v>
+      </c>
+      <c r="C189" t="s">
         <v>560</v>
       </c>
-      <c r="C189">
+      <c r="D189">
         <v>31840011238666</v>
       </c>
-      <c r="D189" t="s">
-        <v>2</v>
-      </c>
       <c r="E189" t="s">
+        <v>2</v>
+      </c>
+      <c r="F189" t="s">
         <v>51</v>
-      </c>
-      <c r="F189" t="s">
-        <v>561</v>
       </c>
       <c r="G189" t="s">
         <v>5</v>
@@ -7513,19 +7516,19 @@
         <v>562</v>
       </c>
       <c r="B190" t="s">
+        <v>564</v>
+      </c>
+      <c r="C190" t="s">
         <v>563</v>
       </c>
-      <c r="C190">
+      <c r="D190">
         <v>31840002906099</v>
       </c>
-      <c r="D190" t="s">
-        <v>2</v>
-      </c>
       <c r="E190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F190" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="G190" t="s">
         <v>5</v>
@@ -7536,19 +7539,19 @@
         <v>565</v>
       </c>
       <c r="B191" t="s">
+        <v>567</v>
+      </c>
+      <c r="C191" t="s">
         <v>566</v>
       </c>
-      <c r="C191">
+      <c r="D191">
         <v>31840009811755</v>
       </c>
-      <c r="D191" t="s">
-        <v>2</v>
-      </c>
       <c r="E191" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F191" t="s">
-        <v>567</v>
+        <v>3</v>
       </c>
       <c r="G191" t="s">
         <v>5</v>
@@ -7559,19 +7562,19 @@
         <v>568</v>
       </c>
       <c r="B192" t="s">
+        <v>570</v>
+      </c>
+      <c r="C192" t="s">
         <v>569</v>
       </c>
-      <c r="C192">
+      <c r="D192">
         <v>31840007136296</v>
       </c>
-      <c r="D192" t="s">
-        <v>2</v>
-      </c>
       <c r="E192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F192" t="s">
-        <v>570</v>
+        <v>3</v>
       </c>
       <c r="G192" t="s">
         <v>5</v>
@@ -7582,19 +7585,19 @@
         <v>571</v>
       </c>
       <c r="B193" t="s">
+        <v>573</v>
+      </c>
+      <c r="C193" t="s">
         <v>572</v>
       </c>
-      <c r="C193">
+      <c r="D193">
         <v>31840004519403</v>
       </c>
-      <c r="D193" t="s">
-        <v>2</v>
-      </c>
       <c r="E193" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F193" t="s">
-        <v>573</v>
+        <v>3</v>
       </c>
       <c r="G193" t="s">
         <v>5</v>
@@ -7605,19 +7608,19 @@
         <v>574</v>
       </c>
       <c r="B194" t="s">
+        <v>576</v>
+      </c>
+      <c r="C194" t="s">
         <v>575</v>
       </c>
-      <c r="C194">
+      <c r="D194">
         <v>31840002901439</v>
       </c>
-      <c r="D194" t="s">
-        <v>2</v>
-      </c>
       <c r="E194" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F194" t="s">
-        <v>576</v>
+        <v>3</v>
       </c>
       <c r="G194" t="s">
         <v>5</v>
@@ -7628,19 +7631,19 @@
         <v>577</v>
       </c>
       <c r="B195" t="s">
+        <v>579</v>
+      </c>
+      <c r="C195" t="s">
         <v>578</v>
       </c>
-      <c r="C195">
+      <c r="D195">
         <v>31840001861972</v>
       </c>
-      <c r="D195" t="s">
-        <v>2</v>
-      </c>
       <c r="E195" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F195" t="s">
-        <v>579</v>
+        <v>3</v>
       </c>
       <c r="G195" t="s">
         <v>5</v>
@@ -7651,19 +7654,19 @@
         <v>580</v>
       </c>
       <c r="B196" t="s">
+        <v>582</v>
+      </c>
+      <c r="C196" t="s">
         <v>581</v>
       </c>
-      <c r="C196">
+      <c r="D196">
         <v>31840001561333</v>
       </c>
-      <c r="D196" t="s">
-        <v>2</v>
-      </c>
       <c r="E196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F196" t="s">
-        <v>582</v>
+        <v>3</v>
       </c>
       <c r="G196" t="s">
         <v>5</v>
@@ -7674,19 +7677,19 @@
         <v>583</v>
       </c>
       <c r="B197" t="s">
+        <v>585</v>
+      </c>
+      <c r="C197" t="s">
         <v>584</v>
       </c>
-      <c r="C197">
+      <c r="D197">
         <v>31840005336955</v>
       </c>
-      <c r="D197" t="s">
-        <v>2</v>
-      </c>
       <c r="E197" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F197" t="s">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="G197" t="s">
         <v>5</v>
@@ -7697,19 +7700,19 @@
         <v>586</v>
       </c>
       <c r="B198" t="s">
+        <v>588</v>
+      </c>
+      <c r="C198" t="s">
         <v>587</v>
       </c>
-      <c r="C198">
+      <c r="D198">
         <v>31840003438951</v>
       </c>
-      <c r="D198" t="s">
-        <v>2</v>
-      </c>
       <c r="E198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F198" t="s">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="G198" t="s">
         <v>5</v>
@@ -7720,19 +7723,19 @@
         <v>589</v>
       </c>
       <c r="B199" t="s">
+        <v>591</v>
+      </c>
+      <c r="C199" t="s">
         <v>590</v>
       </c>
-      <c r="C199">
+      <c r="D199">
         <v>31840009216195</v>
       </c>
-      <c r="D199" t="s">
-        <v>2</v>
-      </c>
       <c r="E199" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F199" t="s">
-        <v>591</v>
+        <v>3</v>
       </c>
       <c r="G199" t="s">
         <v>5</v>
@@ -7743,19 +7746,19 @@
         <v>592</v>
       </c>
       <c r="B200" t="s">
+        <v>594</v>
+      </c>
+      <c r="C200" t="s">
         <v>593</v>
       </c>
-      <c r="C200">
+      <c r="D200">
         <v>31840000767329</v>
       </c>
-      <c r="D200" t="s">
-        <v>2</v>
-      </c>
       <c r="E200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F200" t="s">
-        <v>594</v>
+        <v>3</v>
       </c>
       <c r="G200" t="s">
         <v>5</v>
@@ -7766,19 +7769,19 @@
         <v>595</v>
       </c>
       <c r="B201" t="s">
+        <v>597</v>
+      </c>
+      <c r="C201" t="s">
         <v>596</v>
       </c>
-      <c r="C201">
+      <c r="D201">
         <v>31840004025120</v>
       </c>
-      <c r="D201" t="s">
-        <v>2</v>
-      </c>
       <c r="E201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F201" t="s">
-        <v>597</v>
+        <v>3</v>
       </c>
       <c r="G201" t="s">
         <v>5</v>
@@ -7789,19 +7792,19 @@
         <v>598</v>
       </c>
       <c r="B202" t="s">
+        <v>600</v>
+      </c>
+      <c r="C202" t="s">
         <v>599</v>
       </c>
-      <c r="C202">
+      <c r="D202">
         <v>31840004756146</v>
       </c>
-      <c r="D202" t="s">
-        <v>2</v>
-      </c>
       <c r="E202" t="s">
+        <v>2</v>
+      </c>
+      <c r="F202" t="s">
         <v>51</v>
-      </c>
-      <c r="F202" t="s">
-        <v>600</v>
       </c>
       <c r="G202" t="s">
         <v>5</v>
@@ -7812,19 +7815,19 @@
         <v>601</v>
       </c>
       <c r="B203" t="s">
+        <v>603</v>
+      </c>
+      <c r="C203" t="s">
         <v>602</v>
       </c>
-      <c r="C203">
+      <c r="D203">
         <v>31840009205172</v>
       </c>
-      <c r="D203" t="s">
-        <v>2</v>
-      </c>
       <c r="E203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F203" t="s">
-        <v>603</v>
+        <v>3</v>
       </c>
       <c r="G203" t="s">
         <v>5</v>
@@ -7835,19 +7838,19 @@
         <v>604</v>
       </c>
       <c r="B204" t="s">
+        <v>606</v>
+      </c>
+      <c r="C204" t="s">
         <v>605</v>
       </c>
-      <c r="C204">
+      <c r="D204">
         <v>31840009741218</v>
       </c>
-      <c r="D204" t="s">
-        <v>2</v>
-      </c>
       <c r="E204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F204" t="s">
-        <v>606</v>
+        <v>3</v>
       </c>
       <c r="G204" t="s">
         <v>5</v>
@@ -7858,19 +7861,19 @@
         <v>607</v>
       </c>
       <c r="B205" t="s">
+        <v>609</v>
+      </c>
+      <c r="C205" t="s">
         <v>608</v>
       </c>
-      <c r="C205">
+      <c r="D205">
         <v>31840007089511</v>
       </c>
-      <c r="D205" t="s">
-        <v>2</v>
-      </c>
       <c r="E205" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F205" t="s">
-        <v>609</v>
+        <v>3</v>
       </c>
       <c r="G205" t="s">
         <v>5</v>
@@ -7881,19 +7884,19 @@
         <v>610</v>
       </c>
       <c r="B206" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
         <v>611</v>
       </c>
-      <c r="C206">
+      <c r="D206">
         <v>31840000816878</v>
       </c>
-      <c r="D206" t="s">
-        <v>2</v>
-      </c>
       <c r="E206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F206" t="s">
-        <v>612</v>
+        <v>3</v>
       </c>
       <c r="G206" t="s">
         <v>5</v>
@@ -7904,19 +7907,19 @@
         <v>613</v>
       </c>
       <c r="B207" t="s">
+        <v>615</v>
+      </c>
+      <c r="C207" t="s">
         <v>614</v>
       </c>
-      <c r="C207">
+      <c r="D207">
         <v>31840001143553</v>
       </c>
-      <c r="D207" t="s">
-        <v>2</v>
-      </c>
       <c r="E207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F207" t="s">
-        <v>615</v>
+        <v>3</v>
       </c>
       <c r="G207" t="s">
         <v>5</v>
@@ -7927,19 +7930,19 @@
         <v>616</v>
       </c>
       <c r="B208" t="s">
+        <v>618</v>
+      </c>
+      <c r="C208" t="s">
         <v>617</v>
       </c>
-      <c r="C208">
+      <c r="D208">
         <v>31840004707982</v>
       </c>
-      <c r="D208" t="s">
-        <v>2</v>
-      </c>
       <c r="E208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F208" t="s">
-        <v>618</v>
+        <v>3</v>
       </c>
       <c r="G208" t="s">
         <v>5</v>
@@ -7950,19 +7953,19 @@
         <v>619</v>
       </c>
       <c r="B209" t="s">
+        <v>621</v>
+      </c>
+      <c r="C209" t="s">
         <v>620</v>
       </c>
-      <c r="C209">
+      <c r="D209">
         <v>31840007096797</v>
       </c>
-      <c r="D209" t="s">
-        <v>2</v>
-      </c>
       <c r="E209" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F209" t="s">
-        <v>621</v>
+        <v>3</v>
       </c>
       <c r="G209" t="s">
         <v>5</v>
@@ -7973,19 +7976,19 @@
         <v>622</v>
       </c>
       <c r="B210" t="s">
+        <v>624</v>
+      </c>
+      <c r="C210" t="s">
         <v>623</v>
       </c>
-      <c r="C210">
+      <c r="D210">
         <v>31840004587012</v>
       </c>
-      <c r="D210" t="s">
-        <v>2</v>
-      </c>
       <c r="E210" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F210" t="s">
-        <v>624</v>
+        <v>3</v>
       </c>
       <c r="G210" t="s">
         <v>5</v>
@@ -7996,19 +7999,19 @@
         <v>625</v>
       </c>
       <c r="B211" t="s">
+        <v>627</v>
+      </c>
+      <c r="C211" t="s">
         <v>626</v>
       </c>
-      <c r="C211">
+      <c r="D211">
         <v>31840002342519</v>
       </c>
-      <c r="D211" t="s">
-        <v>2</v>
-      </c>
       <c r="E211" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F211" t="s">
-        <v>627</v>
+        <v>3</v>
       </c>
       <c r="G211" t="s">
         <v>5</v>
@@ -8019,19 +8022,19 @@
         <v>628</v>
       </c>
       <c r="B212" t="s">
+        <v>630</v>
+      </c>
+      <c r="C212" t="s">
         <v>629</v>
       </c>
-      <c r="C212">
+      <c r="D212">
         <v>31840009767411</v>
       </c>
-      <c r="D212" t="s">
-        <v>2</v>
-      </c>
       <c r="E212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F212" t="s">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="G212" t="s">
         <v>5</v>
@@ -8042,19 +8045,19 @@
         <v>631</v>
       </c>
       <c r="B213" t="s">
+        <v>633</v>
+      </c>
+      <c r="C213" t="s">
         <v>632</v>
       </c>
-      <c r="C213">
+      <c r="D213">
         <v>31840009991276</v>
       </c>
-      <c r="D213" t="s">
-        <v>2</v>
-      </c>
       <c r="E213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F213" t="s">
-        <v>633</v>
+        <v>3</v>
       </c>
       <c r="G213" t="s">
         <v>5</v>
@@ -8065,19 +8068,19 @@
         <v>634</v>
       </c>
       <c r="B214" t="s">
+        <v>636</v>
+      </c>
+      <c r="C214" t="s">
         <v>635</v>
       </c>
-      <c r="C214">
+      <c r="D214">
         <v>31840004139533</v>
       </c>
-      <c r="D214" t="s">
-        <v>2</v>
-      </c>
       <c r="E214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F214" t="s">
-        <v>636</v>
+        <v>3</v>
       </c>
       <c r="G214" t="s">
         <v>5</v>
@@ -8088,19 +8091,19 @@
         <v>637</v>
       </c>
       <c r="B215" t="s">
+        <v>639</v>
+      </c>
+      <c r="C215" t="s">
         <v>638</v>
       </c>
-      <c r="C215">
+      <c r="D215">
         <v>31840002650911</v>
       </c>
-      <c r="D215" t="s">
-        <v>2</v>
-      </c>
       <c r="E215" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F215" t="s">
-        <v>639</v>
+        <v>3</v>
       </c>
       <c r="G215" t="s">
         <v>5</v>
@@ -8111,19 +8114,19 @@
         <v>640</v>
       </c>
       <c r="B216" t="s">
+        <v>642</v>
+      </c>
+      <c r="C216" t="s">
         <v>641</v>
       </c>
-      <c r="C216">
+      <c r="D216">
         <v>31840002650952</v>
       </c>
-      <c r="D216" t="s">
-        <v>2</v>
-      </c>
       <c r="E216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F216" t="s">
-        <v>642</v>
+        <v>3</v>
       </c>
       <c r="G216" t="s">
         <v>5</v>
@@ -8134,19 +8137,19 @@
         <v>643</v>
       </c>
       <c r="B217" t="s">
+        <v>645</v>
+      </c>
+      <c r="C217" t="s">
         <v>644</v>
       </c>
-      <c r="C217">
+      <c r="D217">
         <v>31840001861980</v>
       </c>
-      <c r="D217" t="s">
-        <v>2</v>
-      </c>
       <c r="E217" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F217" t="s">
-        <v>645</v>
+        <v>3</v>
       </c>
       <c r="G217" t="s">
         <v>5</v>
@@ -8157,19 +8160,19 @@
         <v>646</v>
       </c>
       <c r="B218" t="s">
+        <v>648</v>
+      </c>
+      <c r="C218" t="s">
         <v>647</v>
       </c>
-      <c r="C218">
+      <c r="D218">
         <v>31840009948797</v>
       </c>
-      <c r="D218" t="s">
-        <v>2</v>
-      </c>
       <c r="E218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F218" t="s">
-        <v>648</v>
+        <v>3</v>
       </c>
       <c r="G218" t="s">
         <v>5</v>
@@ -8180,19 +8183,19 @@
         <v>649</v>
       </c>
       <c r="B219" t="s">
+        <v>651</v>
+      </c>
+      <c r="C219" t="s">
         <v>650</v>
       </c>
-      <c r="C219">
+      <c r="D219">
         <v>31840000835068</v>
       </c>
-      <c r="D219" t="s">
-        <v>2</v>
-      </c>
       <c r="E219" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F219" t="s">
-        <v>651</v>
+        <v>3</v>
       </c>
       <c r="G219" t="s">
         <v>5</v>
@@ -8203,19 +8206,19 @@
         <v>652</v>
       </c>
       <c r="B220" t="s">
+        <v>654</v>
+      </c>
+      <c r="C220" t="s">
         <v>653</v>
       </c>
-      <c r="C220">
+      <c r="D220">
         <v>31840003163823</v>
       </c>
-      <c r="D220" t="s">
-        <v>2</v>
-      </c>
       <c r="E220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F220" t="s">
-        <v>654</v>
+        <v>3</v>
       </c>
       <c r="G220" t="s">
         <v>5</v>
@@ -8226,19 +8229,19 @@
         <v>655</v>
       </c>
       <c r="B221" t="s">
+        <v>657</v>
+      </c>
+      <c r="C221" t="s">
         <v>656</v>
       </c>
-      <c r="C221">
+      <c r="D221">
         <v>31840005289386</v>
       </c>
-      <c r="D221" t="s">
-        <v>2</v>
-      </c>
       <c r="E221" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F221" t="s">
-        <v>657</v>
+        <v>3</v>
       </c>
       <c r="G221" t="s">
         <v>5</v>
@@ -8249,19 +8252,19 @@
         <v>658</v>
       </c>
       <c r="B222" t="s">
+        <v>660</v>
+      </c>
+      <c r="C222" t="s">
         <v>659</v>
       </c>
-      <c r="C222">
+      <c r="D222">
         <v>31840008020044</v>
       </c>
-      <c r="D222" t="s">
-        <v>2</v>
-      </c>
       <c r="E222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F222" t="s">
-        <v>660</v>
+        <v>3</v>
       </c>
       <c r="G222" t="s">
         <v>5</v>
@@ -8272,19 +8275,19 @@
         <v>661</v>
       </c>
       <c r="B223" t="s">
+        <v>663</v>
+      </c>
+      <c r="C223" t="s">
         <v>662</v>
       </c>
-      <c r="C223">
+      <c r="D223">
         <v>31840011236793</v>
       </c>
-      <c r="D223" t="s">
-        <v>2</v>
-      </c>
       <c r="E223" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F223" t="s">
-        <v>663</v>
+        <v>3</v>
       </c>
       <c r="G223" t="s">
         <v>5</v>
@@ -8295,19 +8298,19 @@
         <v>664</v>
       </c>
       <c r="B224" t="s">
+        <v>666</v>
+      </c>
+      <c r="C224" t="s">
         <v>665</v>
       </c>
-      <c r="C224">
+      <c r="D224">
         <v>31840007997705</v>
       </c>
-      <c r="D224" t="s">
-        <v>2</v>
-      </c>
       <c r="E224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F224" t="s">
-        <v>666</v>
+        <v>3</v>
       </c>
       <c r="G224" t="s">
         <v>5</v>
@@ -8318,19 +8321,19 @@
         <v>667</v>
       </c>
       <c r="B225" t="s">
+        <v>669</v>
+      </c>
+      <c r="C225" t="s">
         <v>668</v>
       </c>
-      <c r="C225">
+      <c r="D225">
         <v>31840001373952</v>
       </c>
-      <c r="D225" t="s">
-        <v>2</v>
-      </c>
       <c r="E225" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F225" t="s">
-        <v>669</v>
+        <v>3</v>
       </c>
       <c r="G225" t="s">
         <v>5</v>
@@ -8341,19 +8344,19 @@
         <v>670</v>
       </c>
       <c r="B226" t="s">
+        <v>672</v>
+      </c>
+      <c r="C226" t="s">
         <v>671</v>
       </c>
-      <c r="C226">
+      <c r="D226">
         <v>31840004089241</v>
       </c>
-      <c r="D226" t="s">
-        <v>2</v>
-      </c>
       <c r="E226" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F226" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="G226" t="s">
         <v>5</v>
@@ -8364,19 +8367,19 @@
         <v>673</v>
       </c>
       <c r="B227" t="s">
+        <v>675</v>
+      </c>
+      <c r="C227" t="s">
         <v>674</v>
       </c>
-      <c r="C227">
+      <c r="D227">
         <v>31840002138958</v>
       </c>
-      <c r="D227" t="s">
-        <v>2</v>
-      </c>
       <c r="E227" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F227" t="s">
-        <v>675</v>
+        <v>3</v>
       </c>
       <c r="G227" t="s">
         <v>5</v>
@@ -8387,19 +8390,19 @@
         <v>676</v>
       </c>
       <c r="B228" t="s">
+        <v>678</v>
+      </c>
+      <c r="C228" t="s">
         <v>677</v>
       </c>
-      <c r="C228">
+      <c r="D228">
         <v>31840009834435</v>
       </c>
-      <c r="D228" t="s">
-        <v>2</v>
-      </c>
       <c r="E228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F228" t="s">
-        <v>678</v>
+        <v>3</v>
       </c>
       <c r="G228" t="s">
         <v>5</v>
@@ -8410,19 +8413,19 @@
         <v>679</v>
       </c>
       <c r="B229" t="s">
+        <v>681</v>
+      </c>
+      <c r="C229" t="s">
         <v>680</v>
       </c>
-      <c r="C229">
+      <c r="D229">
         <v>31840007154794</v>
       </c>
-      <c r="D229" t="s">
-        <v>2</v>
-      </c>
       <c r="E229" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F229" t="s">
-        <v>681</v>
+        <v>3</v>
       </c>
       <c r="G229" t="s">
         <v>5</v>
@@ -8433,19 +8436,19 @@
         <v>682</v>
       </c>
       <c r="B230" t="s">
+        <v>684</v>
+      </c>
+      <c r="C230" t="s">
         <v>683</v>
       </c>
-      <c r="C230">
+      <c r="D230">
         <v>31840001417478</v>
       </c>
-      <c r="D230" t="s">
-        <v>2</v>
-      </c>
       <c r="E230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F230" t="s">
-        <v>684</v>
+        <v>3</v>
       </c>
       <c r="G230" t="s">
         <v>5</v>
@@ -8456,19 +8459,19 @@
         <v>685</v>
       </c>
       <c r="B231" t="s">
+        <v>687</v>
+      </c>
+      <c r="C231" t="s">
         <v>686</v>
       </c>
-      <c r="C231">
+      <c r="D231">
         <v>31840001862004</v>
       </c>
-      <c r="D231" t="s">
-        <v>2</v>
-      </c>
       <c r="E231" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F231" t="s">
-        <v>687</v>
+        <v>3</v>
       </c>
       <c r="G231" t="s">
         <v>5</v>
@@ -8479,19 +8482,19 @@
         <v>688</v>
       </c>
       <c r="B232" t="s">
+        <v>690</v>
+      </c>
+      <c r="C232" t="s">
         <v>689</v>
       </c>
-      <c r="C232">
+      <c r="D232">
         <v>31840009205024</v>
       </c>
-      <c r="D232" t="s">
-        <v>2</v>
-      </c>
       <c r="E232" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F232" t="s">
-        <v>690</v>
+        <v>3</v>
       </c>
       <c r="G232" t="s">
         <v>5</v>
@@ -8502,19 +8505,19 @@
         <v>691</v>
       </c>
       <c r="B233" t="s">
+        <v>693</v>
+      </c>
+      <c r="C233" t="s">
         <v>692</v>
       </c>
-      <c r="C233">
+      <c r="D233">
         <v>31840009806912</v>
       </c>
-      <c r="D233" t="s">
-        <v>2</v>
-      </c>
       <c r="E233" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F233" t="s">
-        <v>693</v>
+        <v>3</v>
       </c>
       <c r="G233" t="s">
         <v>5</v>
@@ -8525,19 +8528,19 @@
         <v>694</v>
       </c>
       <c r="B234" t="s">
+        <v>696</v>
+      </c>
+      <c r="C234" t="s">
         <v>695</v>
       </c>
-      <c r="C234">
+      <c r="D234">
         <v>31840000982753</v>
       </c>
-      <c r="D234" t="s">
-        <v>2</v>
-      </c>
       <c r="E234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F234" t="s">
-        <v>696</v>
+        <v>3</v>
       </c>
       <c r="G234" t="s">
         <v>5</v>
@@ -8548,19 +8551,19 @@
         <v>697</v>
       </c>
       <c r="B235" t="s">
+        <v>699</v>
+      </c>
+      <c r="C235" t="s">
         <v>698</v>
       </c>
-      <c r="C235">
+      <c r="D235">
         <v>31840004502458</v>
       </c>
-      <c r="D235" t="s">
-        <v>2</v>
-      </c>
       <c r="E235" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F235" t="s">
-        <v>699</v>
+        <v>3</v>
       </c>
       <c r="G235" t="s">
         <v>5</v>
@@ -8571,19 +8574,19 @@
         <v>700</v>
       </c>
       <c r="B236" t="s">
+        <v>702</v>
+      </c>
+      <c r="C236" t="s">
         <v>701</v>
       </c>
-      <c r="C236">
+      <c r="D236">
         <v>31840005296225</v>
       </c>
-      <c r="D236" t="s">
-        <v>2</v>
-      </c>
       <c r="E236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F236" t="s">
-        <v>702</v>
+        <v>3</v>
       </c>
       <c r="G236" t="s">
         <v>5</v>
@@ -8594,19 +8597,19 @@
         <v>703</v>
       </c>
       <c r="B237" t="s">
+        <v>705</v>
+      </c>
+      <c r="C237" t="s">
         <v>704</v>
       </c>
-      <c r="C237">
+      <c r="D237">
         <v>31840001096975</v>
       </c>
-      <c r="D237" t="s">
-        <v>2</v>
-      </c>
       <c r="E237" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F237" t="s">
-        <v>705</v>
+        <v>3</v>
       </c>
       <c r="G237" t="s">
         <v>5</v>
@@ -8617,19 +8620,19 @@
         <v>706</v>
       </c>
       <c r="B238" t="s">
+        <v>708</v>
+      </c>
+      <c r="C238" t="s">
         <v>707</v>
       </c>
-      <c r="C238">
+      <c r="D238">
         <v>31840004217057</v>
       </c>
-      <c r="D238" t="s">
-        <v>2</v>
-      </c>
       <c r="E238" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F238" t="s">
-        <v>708</v>
+        <v>3</v>
       </c>
       <c r="G238" t="s">
         <v>5</v>
@@ -8640,19 +8643,19 @@
         <v>709</v>
       </c>
       <c r="B239" t="s">
+        <v>711</v>
+      </c>
+      <c r="C239" t="s">
         <v>710</v>
       </c>
-      <c r="C239">
+      <c r="D239">
         <v>31840001091091</v>
       </c>
-      <c r="D239" t="s">
-        <v>2</v>
-      </c>
       <c r="E239" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F239" t="s">
-        <v>711</v>
+        <v>3</v>
       </c>
       <c r="G239" t="s">
         <v>5</v>
@@ -8663,19 +8666,19 @@
         <v>712</v>
       </c>
       <c r="B240" t="s">
+        <v>714</v>
+      </c>
+      <c r="C240" t="s">
         <v>713</v>
       </c>
-      <c r="C240">
+      <c r="D240">
         <v>31840001862012</v>
       </c>
-      <c r="D240" t="s">
-        <v>2</v>
-      </c>
       <c r="E240" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F240" t="s">
-        <v>714</v>
+        <v>3</v>
       </c>
       <c r="G240" t="s">
         <v>5</v>
@@ -8686,19 +8689,19 @@
         <v>715</v>
       </c>
       <c r="B241" t="s">
+        <v>717</v>
+      </c>
+      <c r="C241" t="s">
         <v>716</v>
       </c>
-      <c r="C241">
+      <c r="D241">
         <v>31840005261062</v>
       </c>
-      <c r="D241" t="s">
-        <v>2</v>
-      </c>
       <c r="E241" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F241" t="s">
-        <v>717</v>
+        <v>3</v>
       </c>
       <c r="G241" t="s">
         <v>5</v>
@@ -8709,19 +8712,19 @@
         <v>718</v>
       </c>
       <c r="B242" t="s">
+        <v>720</v>
+      </c>
+      <c r="C242" t="s">
         <v>719</v>
       </c>
-      <c r="C242">
+      <c r="D242">
         <v>31840002546911</v>
       </c>
-      <c r="D242" t="s">
-        <v>2</v>
-      </c>
       <c r="E242" t="s">
+        <v>2</v>
+      </c>
+      <c r="F242" t="s">
         <v>51</v>
-      </c>
-      <c r="F242" t="s">
-        <v>720</v>
       </c>
       <c r="G242" t="s">
         <v>5</v>
@@ -8732,19 +8735,19 @@
         <v>718</v>
       </c>
       <c r="B243" t="s">
+        <v>720</v>
+      </c>
+      <c r="C243" t="s">
         <v>719</v>
       </c>
-      <c r="C243">
+      <c r="D243">
         <v>31840002546937</v>
       </c>
-      <c r="D243" t="s">
-        <v>2</v>
-      </c>
       <c r="E243" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F243" t="s">
-        <v>720</v>
+        <v>3</v>
       </c>
       <c r="G243" t="s">
         <v>5</v>
@@ -8755,19 +8758,19 @@
         <v>721</v>
       </c>
       <c r="B244" t="s">
+        <v>723</v>
+      </c>
+      <c r="C244" t="s">
         <v>722</v>
       </c>
-      <c r="C244">
+      <c r="D244">
         <v>31840004528370</v>
       </c>
-      <c r="D244" t="s">
-        <v>2</v>
-      </c>
       <c r="E244" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F244" t="s">
-        <v>723</v>
+        <v>3</v>
       </c>
       <c r="G244" t="s">
         <v>5</v>
@@ -8778,19 +8781,19 @@
         <v>724</v>
       </c>
       <c r="B245" t="s">
+        <v>726</v>
+      </c>
+      <c r="C245" t="s">
         <v>725</v>
       </c>
-      <c r="C245">
+      <c r="D245">
         <v>31840004658417</v>
       </c>
-      <c r="D245" t="s">
-        <v>2</v>
-      </c>
       <c r="E245" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F245" t="s">
-        <v>726</v>
+        <v>3</v>
       </c>
       <c r="G245" t="s">
         <v>5</v>
@@ -8801,19 +8804,19 @@
         <v>727</v>
       </c>
       <c r="B246" t="s">
+        <v>729</v>
+      </c>
+      <c r="C246" t="s">
         <v>728</v>
       </c>
-      <c r="C246">
+      <c r="D246">
         <v>31840001181686</v>
       </c>
-      <c r="D246" t="s">
-        <v>2</v>
-      </c>
       <c r="E246" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F246" t="s">
-        <v>729</v>
+        <v>3</v>
       </c>
       <c r="G246" t="s">
         <v>5</v>
@@ -8824,19 +8827,19 @@
         <v>730</v>
       </c>
       <c r="B247" t="s">
+        <v>732</v>
+      </c>
+      <c r="C247" t="s">
         <v>731</v>
       </c>
-      <c r="C247">
+      <c r="D247">
         <v>31840001252974</v>
       </c>
-      <c r="D247" t="s">
-        <v>2</v>
-      </c>
       <c r="E247" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F247" t="s">
-        <v>732</v>
+        <v>3</v>
       </c>
       <c r="G247" t="s">
         <v>5</v>
@@ -8847,19 +8850,19 @@
         <v>733</v>
       </c>
       <c r="B248" t="s">
+        <v>735</v>
+      </c>
+      <c r="C248" t="s">
         <v>734</v>
       </c>
-      <c r="C248">
+      <c r="D248">
         <v>31840009776784</v>
       </c>
-      <c r="D248" t="s">
-        <v>2</v>
-      </c>
       <c r="E248" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F248" t="s">
-        <v>735</v>
+        <v>3</v>
       </c>
       <c r="G248" t="s">
         <v>5</v>
@@ -8870,19 +8873,19 @@
         <v>736</v>
       </c>
       <c r="B249" t="s">
+        <v>738</v>
+      </c>
+      <c r="C249" t="s">
         <v>737</v>
       </c>
-      <c r="C249">
+      <c r="D249">
         <v>31840001555541</v>
       </c>
-      <c r="D249" t="s">
-        <v>2</v>
-      </c>
       <c r="E249" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F249" t="s">
-        <v>738</v>
+        <v>3</v>
       </c>
       <c r="G249" t="s">
         <v>5</v>
@@ -8893,19 +8896,19 @@
         <v>739</v>
       </c>
       <c r="B250" t="s">
+        <v>741</v>
+      </c>
+      <c r="C250" t="s">
         <v>740</v>
       </c>
-      <c r="C250">
+      <c r="D250">
         <v>31840001070566</v>
       </c>
-      <c r="D250" t="s">
-        <v>2</v>
-      </c>
       <c r="E250" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F250" t="s">
-        <v>741</v>
+        <v>3</v>
       </c>
       <c r="G250" t="s">
         <v>5</v>
@@ -8916,19 +8919,19 @@
         <v>742</v>
       </c>
       <c r="B251" t="s">
+        <v>744</v>
+      </c>
+      <c r="C251" t="s">
         <v>743</v>
       </c>
-      <c r="C251">
+      <c r="D251">
         <v>31840000618829</v>
       </c>
-      <c r="D251" t="s">
-        <v>2</v>
-      </c>
       <c r="E251" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F251" t="s">
-        <v>744</v>
+        <v>3</v>
       </c>
       <c r="G251" t="s">
         <v>5</v>
@@ -8939,19 +8942,19 @@
         <v>745</v>
       </c>
       <c r="B252" t="s">
+        <v>747</v>
+      </c>
+      <c r="C252" t="s">
         <v>746</v>
       </c>
-      <c r="C252">
+      <c r="D252">
         <v>31840001621004</v>
       </c>
-      <c r="D252" t="s">
-        <v>2</v>
-      </c>
       <c r="E252" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F252" t="s">
-        <v>747</v>
+        <v>3</v>
       </c>
       <c r="G252" t="s">
         <v>5</v>
@@ -8962,19 +8965,19 @@
         <v>748</v>
       </c>
       <c r="B253" t="s">
+        <v>750</v>
+      </c>
+      <c r="C253" t="s">
         <v>749</v>
       </c>
-      <c r="C253">
+      <c r="D253">
         <v>31840008110274</v>
       </c>
-      <c r="D253" t="s">
-        <v>2</v>
-      </c>
       <c r="E253" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F253" t="s">
-        <v>750</v>
+        <v>3</v>
       </c>
       <c r="G253" t="s">
         <v>5</v>
@@ -8985,19 +8988,19 @@
         <v>751</v>
       </c>
       <c r="B254" t="s">
+        <v>753</v>
+      </c>
+      <c r="C254" t="s">
         <v>752</v>
       </c>
-      <c r="C254">
+      <c r="D254">
         <v>31840007068143</v>
       </c>
-      <c r="D254" t="s">
-        <v>2</v>
-      </c>
       <c r="E254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F254" t="s">
-        <v>753</v>
+        <v>3</v>
       </c>
       <c r="G254" t="s">
         <v>5</v>
@@ -9008,19 +9011,19 @@
         <v>751</v>
       </c>
       <c r="B255" t="s">
+        <v>753</v>
+      </c>
+      <c r="C255" t="s">
         <v>752</v>
       </c>
-      <c r="C255">
+      <c r="D255">
         <v>31840010291674</v>
       </c>
-      <c r="D255" t="s">
-        <v>2</v>
-      </c>
       <c r="E255" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F255" t="s">
-        <v>753</v>
+        <v>3</v>
       </c>
       <c r="G255" t="s">
         <v>5</v>
@@ -9031,19 +9034,19 @@
         <v>754</v>
       </c>
       <c r="B256" t="s">
+        <v>756</v>
+      </c>
+      <c r="C256" t="s">
         <v>755</v>
       </c>
-      <c r="C256">
+      <c r="D256">
         <v>31840007109392</v>
       </c>
-      <c r="D256" t="s">
-        <v>2</v>
-      </c>
       <c r="E256" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F256" t="s">
-        <v>756</v>
+        <v>3</v>
       </c>
       <c r="G256" t="s">
         <v>5</v>
@@ -9054,19 +9057,19 @@
         <v>757</v>
       </c>
       <c r="B257" t="s">
+        <v>759</v>
+      </c>
+      <c r="C257" t="s">
         <v>758</v>
       </c>
-      <c r="C257">
+      <c r="D257">
         <v>31840008060586</v>
       </c>
-      <c r="D257" t="s">
-        <v>2</v>
-      </c>
       <c r="E257" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F257" t="s">
-        <v>759</v>
+        <v>3</v>
       </c>
       <c r="G257" t="s">
         <v>5</v>
@@ -9077,19 +9080,19 @@
         <v>760</v>
       </c>
       <c r="B258" t="s">
+        <v>762</v>
+      </c>
+      <c r="C258" t="s">
         <v>761</v>
       </c>
-      <c r="C258">
+      <c r="D258">
         <v>31840005402583</v>
       </c>
-      <c r="D258" t="s">
-        <v>2</v>
-      </c>
       <c r="E258" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F258" t="s">
-        <v>762</v>
+        <v>3</v>
       </c>
       <c r="G258" t="s">
         <v>763</v>
@@ -9100,19 +9103,19 @@
         <v>760</v>
       </c>
       <c r="B259" t="s">
+        <v>762</v>
+      </c>
+      <c r="C259" t="s">
         <v>761</v>
       </c>
-      <c r="C259">
+      <c r="D259">
         <v>31840005402641</v>
       </c>
-      <c r="D259" t="s">
-        <v>2</v>
-      </c>
       <c r="E259" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F259" t="s">
-        <v>762</v>
+        <v>3</v>
       </c>
       <c r="G259" t="s">
         <v>764</v>
@@ -9123,19 +9126,19 @@
         <v>760</v>
       </c>
       <c r="B260" t="s">
+        <v>762</v>
+      </c>
+      <c r="C260" t="s">
         <v>761</v>
       </c>
-      <c r="C260">
+      <c r="D260">
         <v>31840005402708</v>
       </c>
-      <c r="D260" t="s">
-        <v>2</v>
-      </c>
       <c r="E260" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F260" t="s">
-        <v>762</v>
+        <v>3</v>
       </c>
       <c r="G260" t="s">
         <v>765</v>
@@ -9146,19 +9149,19 @@
         <v>760</v>
       </c>
       <c r="B261" t="s">
+        <v>762</v>
+      </c>
+      <c r="C261" t="s">
         <v>761</v>
       </c>
-      <c r="C261">
+      <c r="D261">
         <v>31840005402765</v>
       </c>
-      <c r="D261" t="s">
-        <v>2</v>
-      </c>
       <c r="E261" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F261" t="s">
-        <v>762</v>
+        <v>3</v>
       </c>
       <c r="G261" t="s">
         <v>766</v>
@@ -9169,19 +9172,19 @@
         <v>767</v>
       </c>
       <c r="B262" t="s">
+        <v>769</v>
+      </c>
+      <c r="C262" t="s">
         <v>768</v>
       </c>
-      <c r="C262">
+      <c r="D262">
         <v>31840004692887</v>
       </c>
-      <c r="D262" t="s">
-        <v>2</v>
-      </c>
       <c r="E262" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F262" t="s">
-        <v>769</v>
+        <v>3</v>
       </c>
       <c r="G262" t="s">
         <v>5</v>
@@ -9192,19 +9195,19 @@
         <v>770</v>
       </c>
       <c r="B263" t="s">
+        <v>772</v>
+      </c>
+      <c r="C263" t="s">
         <v>771</v>
       </c>
-      <c r="C263">
+      <c r="D263">
         <v>31840011133776</v>
       </c>
-      <c r="D263" t="s">
-        <v>2</v>
-      </c>
       <c r="E263" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F263" t="s">
-        <v>772</v>
+        <v>3</v>
       </c>
       <c r="G263" t="s">
         <v>5</v>
@@ -9215,19 +9218,19 @@
         <v>773</v>
       </c>
       <c r="B264" t="s">
+        <v>775</v>
+      </c>
+      <c r="C264" t="s">
         <v>774</v>
       </c>
-      <c r="C264">
+      <c r="D264">
         <v>31840003270081</v>
       </c>
-      <c r="D264" t="s">
-        <v>2</v>
-      </c>
       <c r="E264" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F264" t="s">
-        <v>775</v>
+        <v>3</v>
       </c>
       <c r="G264" t="s">
         <v>5</v>
@@ -9238,19 +9241,19 @@
         <v>776</v>
       </c>
       <c r="B265" t="s">
+        <v>778</v>
+      </c>
+      <c r="C265" t="s">
         <v>777</v>
       </c>
-      <c r="C265">
+      <c r="D265">
         <v>31840001276601</v>
       </c>
-      <c r="D265" t="s">
-        <v>2</v>
-      </c>
       <c r="E265" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F265" t="s">
-        <v>778</v>
+        <v>3</v>
       </c>
       <c r="G265" t="s">
         <v>5</v>
@@ -9261,19 +9264,19 @@
         <v>779</v>
       </c>
       <c r="B266" t="s">
+        <v>781</v>
+      </c>
+      <c r="C266" t="s">
         <v>780</v>
       </c>
-      <c r="C266">
+      <c r="D266">
         <v>31840004649309</v>
       </c>
-      <c r="D266" t="s">
-        <v>2</v>
-      </c>
       <c r="E266" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F266" t="s">
-        <v>781</v>
+        <v>3</v>
       </c>
       <c r="G266" t="s">
         <v>5</v>
@@ -9284,19 +9287,19 @@
         <v>782</v>
       </c>
       <c r="B267" t="s">
+        <v>784</v>
+      </c>
+      <c r="C267" t="s">
         <v>783</v>
       </c>
-      <c r="C267">
+      <c r="D267">
         <v>31840007184783</v>
       </c>
-      <c r="D267" t="s">
-        <v>2</v>
-      </c>
       <c r="E267" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F267" t="s">
-        <v>784</v>
+        <v>3</v>
       </c>
       <c r="G267" t="s">
         <v>5</v>
@@ -9307,19 +9310,19 @@
         <v>785</v>
       </c>
       <c r="B268" t="s">
+        <v>787</v>
+      </c>
+      <c r="C268" t="s">
         <v>786</v>
       </c>
-      <c r="C268">
+      <c r="D268">
         <v>31840005422235</v>
       </c>
-      <c r="D268" t="s">
-        <v>2</v>
-      </c>
       <c r="E268" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F268" t="s">
-        <v>787</v>
+        <v>3</v>
       </c>
       <c r="G268" t="s">
         <v>5</v>
@@ -9330,19 +9333,19 @@
         <v>788</v>
       </c>
       <c r="B269" t="s">
+        <v>790</v>
+      </c>
+      <c r="C269" t="s">
         <v>789</v>
       </c>
-      <c r="C269">
+      <c r="D269">
         <v>31840004028587</v>
       </c>
-      <c r="D269" t="s">
-        <v>2</v>
-      </c>
       <c r="E269" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F269" t="s">
-        <v>790</v>
+        <v>3</v>
       </c>
       <c r="G269" t="s">
         <v>5</v>
@@ -9353,19 +9356,19 @@
         <v>791</v>
       </c>
       <c r="B270" t="s">
+        <v>793</v>
+      </c>
+      <c r="C270" t="s">
         <v>792</v>
       </c>
-      <c r="C270">
+      <c r="D270">
         <v>31840002791202</v>
       </c>
-      <c r="D270" t="s">
-        <v>2</v>
-      </c>
       <c r="E270" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F270" t="s">
-        <v>793</v>
+        <v>3</v>
       </c>
       <c r="G270" t="s">
         <v>5</v>
@@ -9376,19 +9379,19 @@
         <v>794</v>
       </c>
       <c r="B271" t="s">
+        <v>796</v>
+      </c>
+      <c r="C271" t="s">
         <v>795</v>
       </c>
-      <c r="C271">
+      <c r="D271">
         <v>31840007187497</v>
       </c>
-      <c r="D271" t="s">
-        <v>2</v>
-      </c>
       <c r="E271" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F271" t="s">
-        <v>796</v>
+        <v>3</v>
       </c>
       <c r="G271" t="s">
         <v>5</v>
@@ -9399,19 +9402,19 @@
         <v>797</v>
       </c>
       <c r="B272" t="s">
+        <v>799</v>
+      </c>
+      <c r="C272" t="s">
         <v>798</v>
       </c>
-      <c r="C272">
+      <c r="D272">
         <v>31840009101165</v>
       </c>
-      <c r="D272" t="s">
-        <v>2</v>
-      </c>
       <c r="E272" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F272" t="s">
-        <v>799</v>
+        <v>3</v>
       </c>
       <c r="G272" t="s">
         <v>5</v>
@@ -9422,19 +9425,19 @@
         <v>800</v>
       </c>
       <c r="B273" t="s">
+        <v>802</v>
+      </c>
+      <c r="C273" t="s">
         <v>801</v>
       </c>
-      <c r="C273">
+      <c r="D273">
         <v>31840001423567</v>
       </c>
-      <c r="D273" t="s">
-        <v>2</v>
-      </c>
       <c r="E273" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F273" t="s">
-        <v>802</v>
+        <v>3</v>
       </c>
       <c r="G273" t="s">
         <v>5</v>
@@ -9445,19 +9448,19 @@
         <v>803</v>
       </c>
       <c r="B274" t="s">
+        <v>805</v>
+      </c>
+      <c r="C274" t="s">
         <v>804</v>
       </c>
-      <c r="C274">
+      <c r="D274">
         <v>31840007190137</v>
       </c>
-      <c r="D274" t="s">
-        <v>2</v>
-      </c>
       <c r="E274" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F274" t="s">
-        <v>805</v>
+        <v>3</v>
       </c>
       <c r="G274" t="s">
         <v>5</v>
@@ -9468,19 +9471,19 @@
         <v>806</v>
       </c>
       <c r="B275" t="s">
+        <v>808</v>
+      </c>
+      <c r="C275" t="s">
         <v>807</v>
       </c>
-      <c r="C275">
+      <c r="D275">
         <v>31840010952119</v>
       </c>
-      <c r="D275" t="s">
-        <v>2</v>
-      </c>
       <c r="E275" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F275" t="s">
-        <v>808</v>
+        <v>3</v>
       </c>
       <c r="G275" t="s">
         <v>5</v>
@@ -9491,19 +9494,19 @@
         <v>809</v>
       </c>
       <c r="B276" t="s">
+        <v>811</v>
+      </c>
+      <c r="C276" t="s">
         <v>810</v>
       </c>
-      <c r="C276">
+      <c r="D276">
         <v>31840004479079</v>
       </c>
-      <c r="D276" t="s">
-        <v>2</v>
-      </c>
       <c r="E276" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F276" t="s">
-        <v>811</v>
+        <v>3</v>
       </c>
       <c r="G276" t="s">
         <v>5</v>
@@ -9514,19 +9517,19 @@
         <v>812</v>
       </c>
       <c r="B277" t="s">
+        <v>814</v>
+      </c>
+      <c r="C277" t="s">
         <v>813</v>
       </c>
-      <c r="C277">
+      <c r="D277">
         <v>31840004214260</v>
       </c>
-      <c r="D277" t="s">
-        <v>2</v>
-      </c>
       <c r="E277" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F277" t="s">
-        <v>814</v>
+        <v>3</v>
       </c>
       <c r="G277" t="s">
         <v>5</v>
@@ -9537,19 +9540,19 @@
         <v>815</v>
       </c>
       <c r="B278" t="s">
+        <v>817</v>
+      </c>
+      <c r="C278" t="s">
         <v>816</v>
       </c>
-      <c r="C278">
+      <c r="D278">
         <v>31840000020018</v>
       </c>
-      <c r="D278" t="s">
-        <v>2</v>
-      </c>
       <c r="E278" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F278" t="s">
-        <v>817</v>
+        <v>3</v>
       </c>
       <c r="G278" t="s">
         <v>5</v>
@@ -9560,19 +9563,19 @@
         <v>818</v>
       </c>
       <c r="B279" t="s">
+        <v>820</v>
+      </c>
+      <c r="C279" t="s">
         <v>819</v>
       </c>
-      <c r="C279">
+      <c r="D279">
         <v>31840004727352</v>
       </c>
-      <c r="D279" t="s">
-        <v>2</v>
-      </c>
       <c r="E279" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F279" t="s">
-        <v>820</v>
+        <v>3</v>
       </c>
       <c r="G279" t="s">
         <v>5</v>
@@ -9583,19 +9586,19 @@
         <v>821</v>
       </c>
       <c r="B280" t="s">
+        <v>823</v>
+      </c>
+      <c r="C280" t="s">
         <v>822</v>
       </c>
-      <c r="C280">
+      <c r="D280">
         <v>31840008016612</v>
       </c>
-      <c r="D280" t="s">
-        <v>2</v>
-      </c>
       <c r="E280" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F280" t="s">
-        <v>823</v>
+        <v>3</v>
       </c>
       <c r="G280" t="s">
         <v>5</v>
@@ -9606,19 +9609,19 @@
         <v>824</v>
       </c>
       <c r="B281" t="s">
+        <v>826</v>
+      </c>
+      <c r="C281" t="s">
         <v>825</v>
       </c>
-      <c r="C281">
+      <c r="D281">
         <v>31840001862020</v>
       </c>
-      <c r="D281" t="s">
-        <v>2</v>
-      </c>
       <c r="E281" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F281" t="s">
-        <v>826</v>
+        <v>3</v>
       </c>
       <c r="G281" t="s">
         <v>5</v>
@@ -9629,19 +9632,19 @@
         <v>827</v>
       </c>
       <c r="B282" t="s">
+        <v>829</v>
+      </c>
+      <c r="C282" t="s">
         <v>828</v>
       </c>
-      <c r="C282">
+      <c r="D282">
         <v>31840000979015</v>
       </c>
-      <c r="D282" t="s">
-        <v>2</v>
-      </c>
       <c r="E282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F282" t="s">
-        <v>829</v>
+        <v>3</v>
       </c>
       <c r="G282" t="s">
         <v>5</v>
@@ -9652,19 +9655,19 @@
         <v>830</v>
       </c>
       <c r="B283" t="s">
+        <v>832</v>
+      </c>
+      <c r="C283" t="s">
         <v>831</v>
       </c>
-      <c r="C283">
+      <c r="D283">
         <v>31840001089343</v>
       </c>
-      <c r="D283" t="s">
-        <v>2</v>
-      </c>
       <c r="E283" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F283" t="s">
-        <v>832</v>
+        <v>3</v>
       </c>
       <c r="G283" t="s">
         <v>5</v>
@@ -9675,19 +9678,19 @@
         <v>833</v>
       </c>
       <c r="B284" t="s">
+        <v>835</v>
+      </c>
+      <c r="C284" t="s">
         <v>834</v>
       </c>
-      <c r="C284">
+      <c r="D284">
         <v>31840007193362</v>
       </c>
-      <c r="D284" t="s">
-        <v>2</v>
-      </c>
       <c r="E284" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F284" t="s">
-        <v>835</v>
+        <v>3</v>
       </c>
       <c r="G284" t="s">
         <v>5</v>
@@ -9698,19 +9701,19 @@
         <v>836</v>
       </c>
       <c r="B285" t="s">
+        <v>838</v>
+      </c>
+      <c r="C285" t="s">
         <v>837</v>
       </c>
-      <c r="C285">
+      <c r="D285">
         <v>31840002890798</v>
       </c>
-      <c r="D285" t="s">
-        <v>2</v>
-      </c>
       <c r="E285" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F285" t="s">
-        <v>838</v>
+        <v>3</v>
       </c>
       <c r="G285" t="s">
         <v>5</v>
@@ -9721,19 +9724,19 @@
         <v>839</v>
       </c>
       <c r="B286" t="s">
+        <v>841</v>
+      </c>
+      <c r="C286" t="s">
         <v>840</v>
       </c>
-      <c r="C286">
+      <c r="D286">
         <v>31840001878133</v>
       </c>
-      <c r="D286" t="s">
-        <v>2</v>
-      </c>
       <c r="E286" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F286" t="s">
-        <v>841</v>
+        <v>3</v>
       </c>
       <c r="G286" t="s">
         <v>5</v>
@@ -9744,19 +9747,19 @@
         <v>842</v>
       </c>
       <c r="B287" t="s">
+        <v>844</v>
+      </c>
+      <c r="C287" t="s">
         <v>843</v>
       </c>
-      <c r="C287">
+      <c r="D287">
         <v>31840001862038</v>
       </c>
-      <c r="D287" t="s">
-        <v>2</v>
-      </c>
       <c r="E287" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F287" t="s">
-        <v>844</v>
+        <v>3</v>
       </c>
       <c r="G287" t="s">
         <v>5</v>
@@ -9767,19 +9770,19 @@
         <v>845</v>
       </c>
       <c r="B288" t="s">
+        <v>847</v>
+      </c>
+      <c r="C288" t="s">
         <v>846</v>
       </c>
-      <c r="C288">
+      <c r="D288">
         <v>31840009842420</v>
       </c>
-      <c r="D288" t="s">
-        <v>2</v>
-      </c>
       <c r="E288" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F288" t="s">
-        <v>847</v>
+        <v>3</v>
       </c>
       <c r="G288" t="s">
         <v>5</v>
@@ -9790,19 +9793,19 @@
         <v>848</v>
       </c>
       <c r="B289" t="s">
+        <v>850</v>
+      </c>
+      <c r="C289" t="s">
         <v>849</v>
       </c>
-      <c r="C289">
+      <c r="D289">
         <v>31840003209899</v>
       </c>
-      <c r="D289" t="s">
-        <v>2</v>
-      </c>
       <c r="E289" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F289" t="s">
-        <v>850</v>
+        <v>3</v>
       </c>
       <c r="G289" t="s">
         <v>5</v>
@@ -9813,19 +9816,19 @@
         <v>851</v>
       </c>
       <c r="B290" t="s">
+        <v>853</v>
+      </c>
+      <c r="C290" t="s">
         <v>852</v>
       </c>
-      <c r="C290">
+      <c r="D290">
         <v>31840003918242</v>
       </c>
-      <c r="D290" t="s">
-        <v>2</v>
-      </c>
       <c r="E290" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F290" t="s">
-        <v>853</v>
+        <v>3</v>
       </c>
       <c r="G290" t="s">
         <v>5</v>
@@ -9836,19 +9839,19 @@
         <v>854</v>
       </c>
       <c r="B291" t="s">
+        <v>856</v>
+      </c>
+      <c r="C291" t="s">
         <v>855</v>
       </c>
-      <c r="C291">
+      <c r="D291">
         <v>31840004690253</v>
       </c>
-      <c r="D291" t="s">
-        <v>2</v>
-      </c>
       <c r="E291" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F291" t="s">
-        <v>856</v>
+        <v>3</v>
       </c>
       <c r="G291" t="s">
         <v>5</v>
@@ -9859,19 +9862,19 @@
         <v>857</v>
       </c>
       <c r="B292" t="s">
+        <v>859</v>
+      </c>
+      <c r="C292" t="s">
         <v>858</v>
       </c>
-      <c r="C292">
+      <c r="D292">
         <v>31840004213908</v>
       </c>
-      <c r="D292" t="s">
-        <v>2</v>
-      </c>
       <c r="E292" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F292" t="s">
-        <v>859</v>
+        <v>3</v>
       </c>
       <c r="G292" t="s">
         <v>5</v>
@@ -9882,19 +9885,19 @@
         <v>860</v>
       </c>
       <c r="B293" t="s">
+        <v>862</v>
+      </c>
+      <c r="C293" t="s">
         <v>861</v>
       </c>
-      <c r="C293">
+      <c r="D293">
         <v>31840003477264</v>
       </c>
-      <c r="D293" t="s">
-        <v>2</v>
-      </c>
       <c r="E293" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F293" t="s">
-        <v>862</v>
+        <v>3</v>
       </c>
       <c r="G293" t="s">
         <v>5</v>
@@ -9905,19 +9908,19 @@
         <v>863</v>
       </c>
       <c r="B294" t="s">
+        <v>865</v>
+      </c>
+      <c r="C294" t="s">
         <v>864</v>
       </c>
-      <c r="C294">
+      <c r="D294">
         <v>31840003660836</v>
       </c>
-      <c r="D294" t="s">
-        <v>2</v>
-      </c>
       <c r="E294" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F294" t="s">
-        <v>865</v>
+        <v>3</v>
       </c>
       <c r="G294" t="s">
         <v>5</v>
@@ -9928,19 +9931,19 @@
         <v>866</v>
       </c>
       <c r="B295" t="s">
+        <v>868</v>
+      </c>
+      <c r="C295" t="s">
         <v>867</v>
       </c>
-      <c r="C295">
+      <c r="D295">
         <v>31840000004145</v>
       </c>
-      <c r="D295" t="s">
-        <v>2</v>
-      </c>
       <c r="E295" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F295" t="s">
-        <v>868</v>
+        <v>3</v>
       </c>
       <c r="G295" t="s">
         <v>5</v>
@@ -9951,19 +9954,19 @@
         <v>869</v>
       </c>
       <c r="B296" t="s">
+        <v>871</v>
+      </c>
+      <c r="C296" t="s">
         <v>870</v>
       </c>
-      <c r="C296">
+      <c r="D296">
         <v>31840003901651</v>
       </c>
-      <c r="D296" t="s">
-        <v>2</v>
-      </c>
       <c r="E296" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F296" t="s">
-        <v>871</v>
+        <v>3</v>
       </c>
       <c r="G296" t="s">
         <v>5</v>
@@ -9974,19 +9977,19 @@
         <v>872</v>
       </c>
       <c r="B297" t="s">
+        <v>874</v>
+      </c>
+      <c r="C297" t="s">
         <v>873</v>
       </c>
-      <c r="C297">
+      <c r="D297">
         <v>31840001862046</v>
       </c>
-      <c r="D297" t="s">
-        <v>2</v>
-      </c>
       <c r="E297" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F297" t="s">
-        <v>874</v>
+        <v>3</v>
       </c>
       <c r="G297" t="s">
         <v>5</v>
@@ -9997,19 +10000,19 @@
         <v>875</v>
       </c>
       <c r="B298" t="s">
+        <v>877</v>
+      </c>
+      <c r="C298" t="s">
         <v>876</v>
       </c>
-      <c r="C298">
+      <c r="D298">
         <v>31840001553850</v>
       </c>
-      <c r="D298" t="s">
-        <v>2</v>
-      </c>
       <c r="E298" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F298" t="s">
-        <v>877</v>
+        <v>3</v>
       </c>
       <c r="G298" t="s">
         <v>5</v>
@@ -10020,19 +10023,19 @@
         <v>878</v>
       </c>
       <c r="B299" t="s">
+        <v>879</v>
+      </c>
+      <c r="C299" t="s">
         <v>876</v>
       </c>
-      <c r="C299">
+      <c r="D299">
         <v>31840009975352</v>
       </c>
-      <c r="D299" t="s">
-        <v>2</v>
-      </c>
       <c r="E299" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F299" t="s">
-        <v>879</v>
+        <v>3</v>
       </c>
       <c r="G299" t="s">
         <v>5</v>
@@ -10043,19 +10046,19 @@
         <v>880</v>
       </c>
       <c r="B300" t="s">
+        <v>882</v>
+      </c>
+      <c r="C300" t="s">
         <v>881</v>
       </c>
-      <c r="C300">
+      <c r="D300">
         <v>31840008020853</v>
       </c>
-      <c r="D300" t="s">
-        <v>2</v>
-      </c>
       <c r="E300" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F300" t="s">
-        <v>882</v>
+        <v>3</v>
       </c>
       <c r="G300" t="s">
         <v>5</v>
@@ -10066,19 +10069,19 @@
         <v>883</v>
       </c>
       <c r="B301" t="s">
+        <v>885</v>
+      </c>
+      <c r="C301" t="s">
         <v>884</v>
       </c>
-      <c r="C301">
+      <c r="D301">
         <v>31840001862053</v>
       </c>
-      <c r="D301" t="s">
-        <v>2</v>
-      </c>
       <c r="E301" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F301" t="s">
-        <v>885</v>
+        <v>3</v>
       </c>
       <c r="G301" t="s">
         <v>5</v>
@@ -10089,19 +10092,19 @@
         <v>886</v>
       </c>
       <c r="B302" t="s">
+        <v>888</v>
+      </c>
+      <c r="C302" t="s">
         <v>887</v>
       </c>
-      <c r="C302">
+      <c r="D302">
         <v>31840002785576</v>
       </c>
-      <c r="D302" t="s">
-        <v>2</v>
-      </c>
       <c r="E302" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F302" t="s">
-        <v>888</v>
+        <v>3</v>
       </c>
       <c r="G302" t="s">
         <v>5</v>
@@ -10112,19 +10115,19 @@
         <v>889</v>
       </c>
       <c r="B303" t="s">
+        <v>891</v>
+      </c>
+      <c r="C303" t="s">
         <v>890</v>
       </c>
-      <c r="C303">
+      <c r="D303">
         <v>31840005739646</v>
       </c>
-      <c r="D303" t="s">
-        <v>2</v>
-      </c>
       <c r="E303" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F303" t="s">
-        <v>891</v>
+        <v>3</v>
       </c>
       <c r="G303" t="s">
         <v>5</v>
@@ -10135,19 +10138,19 @@
         <v>892</v>
       </c>
       <c r="B304" t="s">
+        <v>894</v>
+      </c>
+      <c r="C304" t="s">
         <v>893</v>
       </c>
-      <c r="C304">
+      <c r="D304">
         <v>31840003413236</v>
       </c>
-      <c r="D304" t="s">
-        <v>2</v>
-      </c>
       <c r="E304" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F304" t="s">
-        <v>894</v>
+        <v>3</v>
       </c>
       <c r="G304" t="s">
         <v>5</v>
@@ -10158,19 +10161,19 @@
         <v>895</v>
       </c>
       <c r="B305" t="s">
+        <v>897</v>
+      </c>
+      <c r="C305" t="s">
         <v>896</v>
       </c>
-      <c r="C305">
+      <c r="D305">
         <v>31840009741499</v>
       </c>
-      <c r="D305" t="s">
-        <v>2</v>
-      </c>
       <c r="E305" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F305" t="s">
-        <v>897</v>
+        <v>3</v>
       </c>
       <c r="G305" t="s">
         <v>5</v>
@@ -10181,19 +10184,19 @@
         <v>898</v>
       </c>
       <c r="B306" t="s">
+        <v>900</v>
+      </c>
+      <c r="C306" t="s">
         <v>899</v>
       </c>
-      <c r="C306">
+      <c r="D306">
         <v>31840001252073</v>
       </c>
-      <c r="D306" t="s">
-        <v>2</v>
-      </c>
       <c r="E306" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F306" t="s">
-        <v>900</v>
+        <v>3</v>
       </c>
       <c r="G306" t="s">
         <v>5</v>
@@ -10204,19 +10207,19 @@
         <v>901</v>
       </c>
       <c r="B307" t="s">
+        <v>903</v>
+      </c>
+      <c r="C307" t="s">
         <v>902</v>
       </c>
-      <c r="C307">
+      <c r="D307">
         <v>31840008096762</v>
       </c>
-      <c r="D307" t="s">
-        <v>2</v>
-      </c>
       <c r="E307" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F307" t="s">
-        <v>903</v>
+        <v>3</v>
       </c>
       <c r="G307" t="s">
         <v>5</v>
@@ -10227,19 +10230,19 @@
         <v>904</v>
       </c>
       <c r="B308" t="s">
+        <v>906</v>
+      </c>
+      <c r="C308" t="s">
         <v>905</v>
       </c>
-      <c r="C308">
+      <c r="D308">
         <v>31840007187851</v>
       </c>
-      <c r="D308" t="s">
-        <v>2</v>
-      </c>
       <c r="E308" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F308" t="s">
-        <v>906</v>
+        <v>3</v>
       </c>
       <c r="G308" t="s">
         <v>5</v>
@@ -10250,19 +10253,19 @@
         <v>907</v>
       </c>
       <c r="B309" t="s">
+        <v>909</v>
+      </c>
+      <c r="C309" t="s">
         <v>908</v>
       </c>
-      <c r="C309">
+      <c r="D309">
         <v>31840007071014</v>
       </c>
-      <c r="D309" t="s">
-        <v>2</v>
-      </c>
       <c r="E309" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F309" t="s">
-        <v>909</v>
+        <v>3</v>
       </c>
       <c r="G309" t="s">
         <v>5</v>
@@ -10273,19 +10276,19 @@
         <v>910</v>
       </c>
       <c r="B310" t="s">
+        <v>912</v>
+      </c>
+      <c r="C310" t="s">
         <v>911</v>
       </c>
-      <c r="C310">
+      <c r="D310">
         <v>31840001577438</v>
       </c>
-      <c r="D310" t="s">
-        <v>2</v>
-      </c>
       <c r="E310" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F310" t="s">
-        <v>912</v>
+        <v>3</v>
       </c>
       <c r="G310" t="s">
         <v>5</v>
@@ -10296,19 +10299,19 @@
         <v>913</v>
       </c>
       <c r="B311" t="s">
+        <v>915</v>
+      </c>
+      <c r="C311" t="s">
         <v>914</v>
       </c>
-      <c r="C311">
+      <c r="D311">
         <v>31840009998826</v>
       </c>
-      <c r="D311" t="s">
-        <v>2</v>
-      </c>
       <c r="E311" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F311" t="s">
-        <v>915</v>
+        <v>3</v>
       </c>
       <c r="G311" t="s">
         <v>5</v>
@@ -10319,19 +10322,19 @@
         <v>916</v>
       </c>
       <c r="B312" t="s">
+        <v>918</v>
+      </c>
+      <c r="C312" t="s">
         <v>917</v>
       </c>
-      <c r="C312">
+      <c r="D312">
         <v>31840003197409</v>
       </c>
-      <c r="D312" t="s">
-        <v>2</v>
-      </c>
       <c r="E312" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F312" t="s">
-        <v>918</v>
+        <v>3</v>
       </c>
       <c r="G312" t="s">
         <v>5</v>
@@ -10342,19 +10345,19 @@
         <v>919</v>
       </c>
       <c r="B313" t="s">
+        <v>921</v>
+      </c>
+      <c r="C313" t="s">
         <v>920</v>
       </c>
-      <c r="C313">
+      <c r="D313">
         <v>31840001862061</v>
       </c>
-      <c r="D313" t="s">
-        <v>2</v>
-      </c>
       <c r="E313" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F313" t="s">
-        <v>921</v>
+        <v>3</v>
       </c>
       <c r="G313" t="s">
         <v>5</v>
